--- a/results_analysis/spark_motorFailure_02_hold2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638ED810-CADB-4130-BCCF-A40C9BC5F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC739CE-6745-419D-86FD-A7CA8D2CF38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="K_mean" sheetId="10" r:id="rId7"/>
     <sheet name="hp_best" sheetId="12" r:id="rId8"/>
     <sheet name="v1_v2_best" sheetId="13" r:id="rId9"/>
-    <sheet name="Mconf" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1978,18 +1977,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
@@ -2922,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E17B74-8A06-473F-B1B4-0C752BEBC712}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6772,7 +6759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>

--- a/results_analysis/spark_motorFailure_02_hold2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC739CE-6745-419D-86FD-A7CA8D2CF38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7387ED-2EA6-4550-867A-2D959007FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,12 +648,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,6 +763,171 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1213,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,19 +1231,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1132,13 +1291,13 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="80">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="81">
         <v>0.90789473684210498</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="81">
         <v>0.84868421052631604</v>
       </c>
       <c r="G5" s="13">
@@ -1147,13 +1306,13 @@
       <c r="H5" s="13">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="81">
         <v>0.92763157894736903</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="81">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="41">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1162,25 +1321,25 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="82">
         <v>0.73684210526315796</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="83">
         <v>0.86184210526315796</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="83">
         <v>0.96052631578947401</v>
       </c>
       <c r="H6" s="16">
         <v>0.98026315789473695</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="83">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="83">
         <v>0.74342105263157898</v>
       </c>
       <c r="K6" s="17">
@@ -1195,16 +1354,16 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="82">
         <v>0.78947368421052599</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="83">
         <v>0.93421052631579005</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="83">
         <v>0.90789473684210498</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="83">
         <v>0.92763157894736903</v>
       </c>
       <c r="H7" s="16">
@@ -1213,7 +1372,7 @@
       <c r="I7" s="16">
         <v>0.94736842105263197</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="83">
         <v>0.77631578947368396</v>
       </c>
       <c r="K7" s="17">
@@ -1226,25 +1385,25 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="85">
         <v>0.80263157894736903</v>
       </c>
       <c r="E8" s="20">
         <v>0.95394736842105299</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="86">
         <v>0.83552631578947401</v>
       </c>
       <c r="G8" s="20">
         <v>0.96052631578947401</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="86">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="86">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="86">
         <v>0.71710526315789502</v>
       </c>
       <c r="K8" s="21">
@@ -1261,10 +1420,10 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="88">
         <v>0.93421052631579005</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="89">
         <v>0.83552631578947401</v>
       </c>
       <c r="F9" s="24">
@@ -1276,13 +1435,13 @@
       <c r="H9" s="24">
         <v>0.97368421052631604</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="89">
         <v>0.5</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="89">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="90">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1291,25 +1450,25 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="82">
         <v>0.94736842105263197</v>
       </c>
       <c r="E10" s="16">
         <v>0.99342105263157898</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="83">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="83">
         <v>0.96710526315789502</v>
       </c>
       <c r="H10" s="16">
         <v>0.99342105263157898</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="83">
         <v>0.5</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="83">
         <v>0.90789473684210498</v>
       </c>
       <c r="K10" s="17">
@@ -1324,13 +1483,13 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="82">
         <v>0.86842105263157898</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="83">
         <v>0.91447368421052599</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="83">
         <v>0.92763157894736903</v>
       </c>
       <c r="G11" s="16">
@@ -1339,10 +1498,10 @@
       <c r="H11" s="16">
         <v>0.94736842105263197</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="83">
         <v>0.65789473684210498</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="83">
         <v>0.88815789473684204</v>
       </c>
       <c r="K11" s="17">
@@ -1355,25 +1514,25 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="85">
         <v>0.94078947368421095</v>
       </c>
       <c r="E12" s="20">
         <v>0.99342105263157898</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="86">
         <v>0.90789473684210498</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="86">
         <v>0.95394736842105299</v>
       </c>
       <c r="H12" s="20">
         <v>1</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="86">
         <v>0.63815789473684204</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="86">
         <v>0.94078947368421095</v>
       </c>
       <c r="K12" s="21">
@@ -1393,25 +1552,25 @@
       <c r="D13" s="22">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="89">
         <v>0.90131578947368396</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="89">
         <v>0.92763157894736903</v>
       </c>
       <c r="G13" s="24">
         <v>0.94078947368421095</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="89">
         <v>0.92105263157894701</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="24">
         <v>0.92763157894736903</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="89">
         <v>0.88815789473684204</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="90">
         <v>0.91447368421052599</v>
       </c>
     </row>
@@ -1420,25 +1579,25 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="82">
         <v>0.92105263157894701</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="83">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G14" s="40">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="83">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="83">
         <v>0.94078947368421095</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="83">
         <v>0.90131578947368396</v>
       </c>
       <c r="K14" s="17">
@@ -1453,16 +1612,16 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="37">
         <v>0.67105263157894701</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="83">
         <v>0.65131578947368396</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="83">
         <v>0.67105263157894701</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="83">
         <v>0.67105263157894701</v>
       </c>
       <c r="H15" s="16">
@@ -1471,10 +1630,10 @@
       <c r="I15" s="16">
         <v>0.68421052631579005</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="83">
         <v>0.61184210526315796</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="84">
         <v>0.65131578947368396</v>
       </c>
     </row>
@@ -1484,28 +1643,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="91">
         <v>0.67105263157894701</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="86">
         <v>0.53947368421052599</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="20">
         <v>0.70394736842105299</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="86">
         <v>0.66447368421052599</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="20">
         <v>0.67763157894736903</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="86">
         <v>0.57236842105263197</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="86">
         <v>0.61184210526315796</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="87">
         <v>0.61842105263157898</v>
       </c>
     </row>
@@ -1525,7 +1684,7 @@
       <c r="E17" s="24">
         <v>0.94078947368421095</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="89">
         <v>0.90789473684210498</v>
       </c>
       <c r="G17" s="24">
@@ -1534,10 +1693,10 @@
       <c r="H17" s="24">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="89">
         <v>0.83552631578947401</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="89">
         <v>0.90789473684210498</v>
       </c>
       <c r="K17" s="25">
@@ -1549,25 +1708,25 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="82">
         <v>0.93421052631579005</v>
       </c>
       <c r="E18" s="16">
         <v>0.98026315789473695</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="83">
         <v>0.92105263157894701</v>
       </c>
       <c r="G18" s="16">
         <v>0.95394736842105299</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="83">
         <v>0.92763157894736903</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="83">
         <v>0.82236842105263197</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="83">
         <v>0.91447368421052599</v>
       </c>
       <c r="K18" s="17">
@@ -1582,13 +1741,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="82">
         <v>0.73684210526315796</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="83">
         <v>0.89473684210526305</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="83">
         <v>0.89473684210526305</v>
       </c>
       <c r="G19" s="16">
@@ -1597,10 +1756,10 @@
       <c r="H19" s="16">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="83">
         <v>0.84868421052631604</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="83">
         <v>0.82236842105263197</v>
       </c>
       <c r="K19" s="17">
@@ -1613,25 +1772,25 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="85">
         <v>0.76315789473684204</v>
       </c>
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="86">
         <v>0.91447368421052599</v>
       </c>
       <c r="G20" s="20">
         <v>0.98684210526315796</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="86">
         <v>0.97368421052631604</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="86">
         <v>0.75657894736842102</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="86">
         <v>0.75</v>
       </c>
       <c r="K20" s="21">
@@ -1974,6 +2133,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1981,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,19 +2160,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2910,7 +3070,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,19 +3088,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3680,7 +3840,1549 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="113">
+        <v>31</v>
+      </c>
+      <c r="E5" s="114">
+        <v>218</v>
+      </c>
+      <c r="F5" s="114">
+        <v>133</v>
+      </c>
+      <c r="G5" s="115">
+        <v>239</v>
+      </c>
+      <c r="H5" s="115">
+        <v>241</v>
+      </c>
+      <c r="I5" s="114">
+        <v>195</v>
+      </c>
+      <c r="J5" s="114">
+        <v>9</v>
+      </c>
+      <c r="K5" s="116">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="117">
+        <v>16</v>
+      </c>
+      <c r="E6" s="118">
+        <v>274</v>
+      </c>
+      <c r="F6" s="119">
+        <v>103</v>
+      </c>
+      <c r="G6" s="119">
+        <v>221</v>
+      </c>
+      <c r="H6" s="118">
+        <v>216</v>
+      </c>
+      <c r="I6" s="119">
+        <v>269</v>
+      </c>
+      <c r="J6" s="119">
+        <v>12</v>
+      </c>
+      <c r="K6" s="120">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="117">
+        <v>42</v>
+      </c>
+      <c r="E7" s="119">
+        <v>216</v>
+      </c>
+      <c r="F7" s="119">
+        <v>154</v>
+      </c>
+      <c r="G7" s="119">
+        <v>217</v>
+      </c>
+      <c r="H7" s="118">
+        <v>217</v>
+      </c>
+      <c r="I7" s="118">
+        <v>281</v>
+      </c>
+      <c r="J7" s="119">
+        <v>32</v>
+      </c>
+      <c r="K7" s="120">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="121">
+        <v>30</v>
+      </c>
+      <c r="E8" s="122">
+        <v>281</v>
+      </c>
+      <c r="F8" s="123">
+        <v>29</v>
+      </c>
+      <c r="G8" s="122">
+        <v>218</v>
+      </c>
+      <c r="H8" s="123">
+        <v>218</v>
+      </c>
+      <c r="I8" s="123">
+        <v>281</v>
+      </c>
+      <c r="J8" s="123">
+        <v>29</v>
+      </c>
+      <c r="K8" s="124">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="125">
+        <v>185</v>
+      </c>
+      <c r="E9" s="126">
+        <v>164</v>
+      </c>
+      <c r="F9" s="127">
+        <v>188</v>
+      </c>
+      <c r="G9" s="127">
+        <v>216</v>
+      </c>
+      <c r="H9" s="127">
+        <v>217</v>
+      </c>
+      <c r="I9" s="126">
+        <v>1</v>
+      </c>
+      <c r="J9" s="126">
+        <v>184</v>
+      </c>
+      <c r="K9" s="128">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="117">
+        <v>183</v>
+      </c>
+      <c r="E10" s="118">
+        <v>216</v>
+      </c>
+      <c r="F10" s="119">
+        <v>152</v>
+      </c>
+      <c r="G10" s="119">
+        <v>217</v>
+      </c>
+      <c r="H10" s="118">
+        <v>216</v>
+      </c>
+      <c r="I10" s="119">
+        <v>1</v>
+      </c>
+      <c r="J10" s="119">
+        <v>158</v>
+      </c>
+      <c r="K10" s="120">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="117">
+        <v>54</v>
+      </c>
+      <c r="E11" s="119">
+        <v>217</v>
+      </c>
+      <c r="F11" s="119">
+        <v>156</v>
+      </c>
+      <c r="G11" s="118">
+        <v>201</v>
+      </c>
+      <c r="H11" s="118">
+        <v>215</v>
+      </c>
+      <c r="I11" s="119">
+        <v>2</v>
+      </c>
+      <c r="J11" s="119">
+        <v>157</v>
+      </c>
+      <c r="K11" s="120">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="121">
+        <v>180</v>
+      </c>
+      <c r="E12" s="122">
+        <v>217</v>
+      </c>
+      <c r="F12" s="123">
+        <v>177</v>
+      </c>
+      <c r="G12" s="123">
+        <v>217</v>
+      </c>
+      <c r="H12" s="122">
+        <v>218</v>
+      </c>
+      <c r="I12" s="123">
+        <v>2</v>
+      </c>
+      <c r="J12" s="123">
+        <v>178</v>
+      </c>
+      <c r="K12" s="124">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="129">
+        <v>77</v>
+      </c>
+      <c r="E13" s="126">
+        <v>80</v>
+      </c>
+      <c r="F13" s="126">
+        <v>71</v>
+      </c>
+      <c r="G13" s="127">
+        <v>79</v>
+      </c>
+      <c r="H13" s="126">
+        <v>75</v>
+      </c>
+      <c r="I13" s="127">
+        <v>69</v>
+      </c>
+      <c r="J13" s="126">
+        <v>66</v>
+      </c>
+      <c r="K13" s="128">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="117">
+        <v>66</v>
+      </c>
+      <c r="E14" s="118">
+        <v>45</v>
+      </c>
+      <c r="F14" s="119">
+        <v>87</v>
+      </c>
+      <c r="G14" s="118">
+        <v>47</v>
+      </c>
+      <c r="H14" s="119">
+        <v>78</v>
+      </c>
+      <c r="I14" s="119">
+        <v>66</v>
+      </c>
+      <c r="J14" s="119">
+        <v>65</v>
+      </c>
+      <c r="K14" s="120">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="130">
+        <v>2</v>
+      </c>
+      <c r="E15" s="119">
+        <v>2</v>
+      </c>
+      <c r="F15" s="119">
+        <v>2</v>
+      </c>
+      <c r="G15" s="119">
+        <v>2</v>
+      </c>
+      <c r="H15" s="118">
+        <v>2</v>
+      </c>
+      <c r="I15" s="118">
+        <v>2</v>
+      </c>
+      <c r="J15" s="119">
+        <v>2</v>
+      </c>
+      <c r="K15" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="132">
+        <v>2</v>
+      </c>
+      <c r="E16" s="123">
+        <v>2</v>
+      </c>
+      <c r="F16" s="122">
+        <v>12</v>
+      </c>
+      <c r="G16" s="123">
+        <v>2</v>
+      </c>
+      <c r="H16" s="122">
+        <v>2</v>
+      </c>
+      <c r="I16" s="123">
+        <v>2</v>
+      </c>
+      <c r="J16" s="123">
+        <v>2</v>
+      </c>
+      <c r="K16" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="129">
+        <v>258</v>
+      </c>
+      <c r="E17" s="127">
+        <v>169</v>
+      </c>
+      <c r="F17" s="126">
+        <v>180</v>
+      </c>
+      <c r="G17" s="127">
+        <v>177</v>
+      </c>
+      <c r="H17" s="127">
+        <v>158</v>
+      </c>
+      <c r="I17" s="126">
+        <v>71</v>
+      </c>
+      <c r="J17" s="126">
+        <v>232</v>
+      </c>
+      <c r="K17" s="134">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="117">
+        <v>281</v>
+      </c>
+      <c r="E18" s="118">
+        <v>281</v>
+      </c>
+      <c r="F18" s="119">
+        <v>251</v>
+      </c>
+      <c r="G18" s="118">
+        <v>121</v>
+      </c>
+      <c r="H18" s="119">
+        <v>277</v>
+      </c>
+      <c r="I18" s="119">
+        <v>79</v>
+      </c>
+      <c r="J18" s="119">
+        <v>206</v>
+      </c>
+      <c r="K18" s="120">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="117">
+        <v>15</v>
+      </c>
+      <c r="E19" s="119">
+        <v>145</v>
+      </c>
+      <c r="F19" s="119">
+        <v>158</v>
+      </c>
+      <c r="G19" s="118">
+        <v>217</v>
+      </c>
+      <c r="H19" s="118">
+        <v>217</v>
+      </c>
+      <c r="I19" s="119">
+        <v>89</v>
+      </c>
+      <c r="J19" s="119">
+        <v>116</v>
+      </c>
+      <c r="K19" s="120">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="121">
+        <v>13</v>
+      </c>
+      <c r="E20" s="122">
+        <v>243</v>
+      </c>
+      <c r="F20" s="123">
+        <v>213</v>
+      </c>
+      <c r="G20" s="122">
+        <v>226</v>
+      </c>
+      <c r="H20" s="123">
+        <v>217</v>
+      </c>
+      <c r="I20" s="123">
+        <v>95</v>
+      </c>
+      <c r="J20" s="123">
+        <v>52</v>
+      </c>
+      <c r="K20" s="124">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="113">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E5" s="114">
+        <v>100.1</v>
+      </c>
+      <c r="F5" s="114">
+        <v>46.8</v>
+      </c>
+      <c r="G5" s="115">
+        <v>151.4</v>
+      </c>
+      <c r="H5" s="115">
+        <v>178.6</v>
+      </c>
+      <c r="I5" s="114">
+        <v>176.3</v>
+      </c>
+      <c r="J5" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="K5" s="116">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="117">
+        <v>16.7</v>
+      </c>
+      <c r="E6" s="118">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="F6" s="119">
+        <v>33.1</v>
+      </c>
+      <c r="G6" s="119">
+        <v>152.1</v>
+      </c>
+      <c r="H6" s="118">
+        <v>164.9</v>
+      </c>
+      <c r="I6" s="119">
+        <v>173.8</v>
+      </c>
+      <c r="J6" s="119">
+        <v>7.6</v>
+      </c>
+      <c r="K6" s="120">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="117">
+        <v>22.3</v>
+      </c>
+      <c r="E7" s="119">
+        <v>85.7</v>
+      </c>
+      <c r="F7" s="119">
+        <v>68.7</v>
+      </c>
+      <c r="G7" s="119">
+        <v>156.5</v>
+      </c>
+      <c r="H7" s="118">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="I7" s="118">
+        <v>202.7</v>
+      </c>
+      <c r="J7" s="119">
+        <v>12.4</v>
+      </c>
+      <c r="K7" s="120">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="121">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E8" s="122">
+        <v>132.5</v>
+      </c>
+      <c r="F8" s="123">
+        <v>47.4</v>
+      </c>
+      <c r="G8" s="122">
+        <v>204.5</v>
+      </c>
+      <c r="H8" s="123">
+        <v>136.4</v>
+      </c>
+      <c r="I8" s="123">
+        <v>168.1</v>
+      </c>
+      <c r="J8" s="123">
+        <v>15.6</v>
+      </c>
+      <c r="K8" s="124">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="125">
+        <v>73.2</v>
+      </c>
+      <c r="E9" s="126">
+        <v>46.8</v>
+      </c>
+      <c r="F9" s="127">
+        <v>124.9</v>
+      </c>
+      <c r="G9" s="127">
+        <v>160.4</v>
+      </c>
+      <c r="H9" s="127">
+        <v>195.5</v>
+      </c>
+      <c r="I9" s="126">
+        <v>1</v>
+      </c>
+      <c r="J9" s="126">
+        <v>73.2</v>
+      </c>
+      <c r="K9" s="128">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="117">
+        <v>76.3</v>
+      </c>
+      <c r="E10" s="118">
+        <v>129.5</v>
+      </c>
+      <c r="F10" s="119">
+        <v>51.6</v>
+      </c>
+      <c r="G10" s="119">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="H10" s="118">
+        <v>215</v>
+      </c>
+      <c r="I10" s="119">
+        <v>1</v>
+      </c>
+      <c r="J10" s="119">
+        <v>67</v>
+      </c>
+      <c r="K10" s="120">
+        <v>180.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="117">
+        <v>60</v>
+      </c>
+      <c r="E11" s="119">
+        <v>112</v>
+      </c>
+      <c r="F11" s="119">
+        <v>64.7</v>
+      </c>
+      <c r="G11" s="118">
+        <v>142.4</v>
+      </c>
+      <c r="H11" s="118">
+        <v>178</v>
+      </c>
+      <c r="I11" s="119">
+        <v>2</v>
+      </c>
+      <c r="J11" s="119">
+        <v>40.6</v>
+      </c>
+      <c r="K11" s="120">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="121">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E12" s="122">
+        <v>134</v>
+      </c>
+      <c r="F12" s="123">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G12" s="123">
+        <v>149</v>
+      </c>
+      <c r="H12" s="122">
+        <v>174.7</v>
+      </c>
+      <c r="I12" s="123">
+        <v>2</v>
+      </c>
+      <c r="J12" s="123">
+        <v>62.2</v>
+      </c>
+      <c r="K12" s="124">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="129">
+        <v>70</v>
+      </c>
+      <c r="E13" s="126">
+        <v>75.2</v>
+      </c>
+      <c r="F13" s="126">
+        <v>52.8</v>
+      </c>
+      <c r="G13" s="127">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H13" s="126">
+        <v>57.8</v>
+      </c>
+      <c r="I13" s="127">
+        <v>67.5</v>
+      </c>
+      <c r="J13" s="126">
+        <v>48.6</v>
+      </c>
+      <c r="K13" s="128">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="117">
+        <v>67.8</v>
+      </c>
+      <c r="E14" s="118">
+        <v>49.8</v>
+      </c>
+      <c r="F14" s="119">
+        <v>57.7</v>
+      </c>
+      <c r="G14" s="118">
+        <v>58.9</v>
+      </c>
+      <c r="H14" s="119">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="I14" s="119">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J14" s="119">
+        <v>41.1</v>
+      </c>
+      <c r="K14" s="120">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="130">
+        <v>2</v>
+      </c>
+      <c r="E15" s="119">
+        <v>2</v>
+      </c>
+      <c r="F15" s="119">
+        <v>2</v>
+      </c>
+      <c r="G15" s="119">
+        <v>2</v>
+      </c>
+      <c r="H15" s="118">
+        <v>2</v>
+      </c>
+      <c r="I15" s="118">
+        <v>2</v>
+      </c>
+      <c r="J15" s="119">
+        <v>2</v>
+      </c>
+      <c r="K15" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="132">
+        <v>2</v>
+      </c>
+      <c r="E16" s="123">
+        <v>2</v>
+      </c>
+      <c r="F16" s="122">
+        <v>8</v>
+      </c>
+      <c r="G16" s="123">
+        <v>2</v>
+      </c>
+      <c r="H16" s="122">
+        <v>2</v>
+      </c>
+      <c r="I16" s="123">
+        <v>2</v>
+      </c>
+      <c r="J16" s="123">
+        <v>2</v>
+      </c>
+      <c r="K16" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="129">
+        <v>274.2</v>
+      </c>
+      <c r="E17" s="127">
+        <v>223.6</v>
+      </c>
+      <c r="F17" s="126">
+        <v>44.2</v>
+      </c>
+      <c r="G17" s="127">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="H17" s="127">
+        <v>191.5</v>
+      </c>
+      <c r="I17" s="126">
+        <v>45.1</v>
+      </c>
+      <c r="J17" s="126">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K17" s="134">
+        <v>227.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="117">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="E18" s="118">
+        <v>234.1</v>
+      </c>
+      <c r="F18" s="119">
+        <v>79.7</v>
+      </c>
+      <c r="G18" s="118">
+        <v>134.1</v>
+      </c>
+      <c r="H18" s="119">
+        <v>212.2</v>
+      </c>
+      <c r="I18" s="119">
+        <v>55.1</v>
+      </c>
+      <c r="J18" s="119">
+        <v>46.9</v>
+      </c>
+      <c r="K18" s="120">
+        <v>204.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="117">
+        <v>12.8</v>
+      </c>
+      <c r="E19" s="119">
+        <v>125.3</v>
+      </c>
+      <c r="F19" s="119">
+        <v>54.9</v>
+      </c>
+      <c r="G19" s="118">
+        <v>95.2</v>
+      </c>
+      <c r="H19" s="118">
+        <v>106.7</v>
+      </c>
+      <c r="I19" s="119">
+        <v>61.5</v>
+      </c>
+      <c r="J19" s="119">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K19" s="120">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="121">
+        <v>12.3</v>
+      </c>
+      <c r="E20" s="122">
+        <v>152</v>
+      </c>
+      <c r="F20" s="123">
+        <v>71</v>
+      </c>
+      <c r="G20" s="122">
+        <v>160.4</v>
+      </c>
+      <c r="H20" s="123">
+        <v>171.1</v>
+      </c>
+      <c r="I20" s="123">
+        <v>43.6</v>
+      </c>
+      <c r="J20" s="123">
+        <v>27.7</v>
+      </c>
+      <c r="K20" s="124">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,19 +5400,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="A1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3758,29 +5460,29 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>31</v>
-      </c>
-      <c r="E5" s="38">
-        <v>218</v>
-      </c>
-      <c r="F5" s="38">
-        <v>133</v>
-      </c>
-      <c r="G5" s="39">
-        <v>239</v>
-      </c>
-      <c r="H5" s="39">
-        <v>241</v>
-      </c>
-      <c r="I5" s="39">
-        <v>195</v>
-      </c>
-      <c r="J5" s="38">
-        <v>9</v>
-      </c>
-      <c r="K5" s="38">
-        <v>267</v>
+      <c r="D5" s="92">
+        <v>1</v>
+      </c>
+      <c r="E5" s="93">
+        <v>1</v>
+      </c>
+      <c r="F5" s="93">
+        <v>1</v>
+      </c>
+      <c r="G5" s="94">
+        <v>1</v>
+      </c>
+      <c r="H5" s="94">
+        <v>1</v>
+      </c>
+      <c r="I5" s="93">
+        <v>1</v>
+      </c>
+      <c r="J5" s="93">
+        <v>1</v>
+      </c>
+      <c r="K5" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3788,29 +5490,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
-        <v>16</v>
-      </c>
-      <c r="E6" s="38">
-        <v>274</v>
-      </c>
-      <c r="F6" s="38">
-        <v>103</v>
-      </c>
-      <c r="G6" s="39">
-        <v>221</v>
+      <c r="D6" s="96">
+        <v>2</v>
+      </c>
+      <c r="E6" s="39">
+        <v>5</v>
+      </c>
+      <c r="F6" s="97">
+        <v>2</v>
+      </c>
+      <c r="G6" s="97">
+        <v>7</v>
       </c>
       <c r="H6" s="39">
-        <v>216</v>
-      </c>
-      <c r="I6" s="39">
-        <v>269</v>
-      </c>
-      <c r="J6" s="38">
-        <v>12</v>
-      </c>
-      <c r="K6" s="39">
-        <v>217</v>
+        <v>7</v>
+      </c>
+      <c r="I6" s="97">
+        <v>5</v>
+      </c>
+      <c r="J6" s="97">
+        <v>5</v>
+      </c>
+      <c r="K6" s="98">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3821,29 +5523,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>42</v>
-      </c>
-      <c r="E7" s="38">
-        <v>216</v>
-      </c>
-      <c r="F7" s="38">
-        <v>154</v>
-      </c>
-      <c r="G7" s="39">
-        <v>217</v>
+      <c r="D7" s="96">
+        <v>1</v>
+      </c>
+      <c r="E7" s="97">
+        <v>1</v>
+      </c>
+      <c r="F7" s="97">
+        <v>1</v>
+      </c>
+      <c r="G7" s="97">
+        <v>1</v>
       </c>
       <c r="H7" s="39">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="I7" s="39">
-        <v>281</v>
-      </c>
-      <c r="J7" s="38">
-        <v>32</v>
-      </c>
-      <c r="K7" s="38">
-        <v>216</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="97">
+        <v>1</v>
+      </c>
+      <c r="K7" s="98">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3852,29 +5554,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
-        <v>30</v>
-      </c>
-      <c r="E8" s="38">
-        <v>281</v>
-      </c>
-      <c r="F8" s="38">
-        <v>29</v>
-      </c>
-      <c r="G8" s="39">
-        <v>218</v>
-      </c>
-      <c r="H8" s="38">
-        <v>218</v>
-      </c>
-      <c r="I8" s="39">
-        <v>281</v>
-      </c>
-      <c r="J8" s="38">
-        <v>29</v>
-      </c>
-      <c r="K8" s="39">
-        <v>216</v>
+      <c r="D8" s="99">
+        <v>3</v>
+      </c>
+      <c r="E8" s="100">
+        <v>3</v>
+      </c>
+      <c r="F8" s="101">
+        <v>2</v>
+      </c>
+      <c r="G8" s="100">
+        <v>7</v>
+      </c>
+      <c r="H8" s="101">
+        <v>6</v>
+      </c>
+      <c r="I8" s="101">
+        <v>2</v>
+      </c>
+      <c r="J8" s="101">
+        <v>7</v>
+      </c>
+      <c r="K8" s="102">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3887,29 +5589,29 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>185</v>
-      </c>
-      <c r="E9" s="38">
-        <v>164</v>
-      </c>
-      <c r="F9" s="38">
-        <v>188</v>
-      </c>
-      <c r="G9" s="39">
-        <v>216</v>
-      </c>
-      <c r="H9" s="39">
-        <v>217</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>184</v>
-      </c>
-      <c r="K9" s="39">
-        <v>215</v>
+      <c r="D9" s="103">
+        <v>1</v>
+      </c>
+      <c r="E9" s="104">
+        <v>1</v>
+      </c>
+      <c r="F9" s="105">
+        <v>1</v>
+      </c>
+      <c r="G9" s="105">
+        <v>1</v>
+      </c>
+      <c r="H9" s="105">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
+      <c r="J9" s="104">
+        <v>1</v>
+      </c>
+      <c r="K9" s="106">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3917,29 +5619,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
-        <v>183</v>
-      </c>
-      <c r="E10" s="38">
-        <v>216</v>
-      </c>
-      <c r="F10" s="38">
-        <v>152</v>
-      </c>
-      <c r="G10" s="39">
-        <v>217</v>
+      <c r="D10" s="96">
+        <v>3</v>
+      </c>
+      <c r="E10" s="39">
+        <v>3</v>
+      </c>
+      <c r="F10" s="97">
+        <v>2</v>
+      </c>
+      <c r="G10" s="97">
+        <v>5</v>
       </c>
       <c r="H10" s="39">
-        <v>216</v>
-      </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
-        <v>158</v>
-      </c>
-      <c r="K10" s="39">
-        <v>216</v>
+        <v>7</v>
+      </c>
+      <c r="I10" s="97">
+        <v>5</v>
+      </c>
+      <c r="J10" s="97">
+        <v>3</v>
+      </c>
+      <c r="K10" s="98">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3950,29 +5652,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>54</v>
-      </c>
-      <c r="E11" s="38">
-        <v>217</v>
-      </c>
-      <c r="F11" s="38">
-        <v>156</v>
+      <c r="D11" s="96">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="97">
+        <v>1</v>
       </c>
       <c r="G11" s="39">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="H11" s="39">
-        <v>215</v>
-      </c>
-      <c r="I11" s="38">
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
-        <v>157</v>
-      </c>
-      <c r="K11" s="39">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="97">
+        <v>1</v>
+      </c>
+      <c r="J11" s="97">
+        <v>1</v>
+      </c>
+      <c r="K11" s="98">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3981,29 +5683,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
-        <v>180</v>
-      </c>
-      <c r="E12" s="38">
-        <v>217</v>
-      </c>
-      <c r="F12" s="38">
-        <v>177</v>
-      </c>
-      <c r="G12" s="39">
-        <v>217</v>
-      </c>
-      <c r="H12" s="39">
-        <v>218</v>
-      </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38">
-        <v>178</v>
-      </c>
-      <c r="K12" s="39">
-        <v>217</v>
+      <c r="D12" s="99">
+        <v>2</v>
+      </c>
+      <c r="E12" s="100">
+        <v>5</v>
+      </c>
+      <c r="F12" s="101">
+        <v>2</v>
+      </c>
+      <c r="G12" s="101">
+        <v>4</v>
+      </c>
+      <c r="H12" s="100">
+        <v>7</v>
+      </c>
+      <c r="I12" s="101">
+        <v>9</v>
+      </c>
+      <c r="J12" s="101">
+        <v>2</v>
+      </c>
+      <c r="K12" s="102">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4016,29 +5718,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
-        <v>77</v>
-      </c>
-      <c r="E13" s="38">
-        <v>80</v>
-      </c>
-      <c r="F13" s="38">
-        <v>71</v>
-      </c>
-      <c r="G13" s="39">
-        <v>79</v>
-      </c>
-      <c r="H13" s="38">
-        <v>75</v>
-      </c>
-      <c r="I13" s="39">
-        <v>69</v>
-      </c>
-      <c r="J13" s="38">
-        <v>66</v>
-      </c>
-      <c r="K13" s="39">
-        <v>72</v>
+      <c r="D13" s="107">
+        <v>1</v>
+      </c>
+      <c r="E13" s="104">
+        <v>1</v>
+      </c>
+      <c r="F13" s="104">
+        <v>1</v>
+      </c>
+      <c r="G13" s="105">
+        <v>1</v>
+      </c>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="105">
+        <v>1</v>
+      </c>
+      <c r="J13" s="104">
+        <v>1</v>
+      </c>
+      <c r="K13" s="106">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4046,29 +5748,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
-        <v>66</v>
-      </c>
-      <c r="E14" s="38">
-        <v>45</v>
-      </c>
-      <c r="F14" s="38">
-        <v>87</v>
-      </c>
-      <c r="G14" s="41">
-        <v>47</v>
-      </c>
-      <c r="H14" s="38">
-        <v>78</v>
-      </c>
-      <c r="I14" s="39">
-        <v>66</v>
-      </c>
-      <c r="J14" s="38">
-        <v>65</v>
-      </c>
-      <c r="K14" s="39">
-        <v>45</v>
+      <c r="D14" s="96">
+        <v>2</v>
+      </c>
+      <c r="E14" s="39">
+        <v>5</v>
+      </c>
+      <c r="F14" s="97">
+        <v>2</v>
+      </c>
+      <c r="G14" s="39">
+        <v>7</v>
+      </c>
+      <c r="H14" s="97">
+        <v>3</v>
+      </c>
+      <c r="I14" s="97">
+        <v>4</v>
+      </c>
+      <c r="J14" s="97">
+        <v>2</v>
+      </c>
+      <c r="K14" s="98">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4079,29 +5781,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>2</v>
-      </c>
-      <c r="G15" s="38">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>2</v>
-      </c>
-      <c r="I15" s="38">
-        <v>2</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="38">
-        <v>2</v>
+      <c r="D15" s="108">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
+      <c r="F15" s="97">
+        <v>1</v>
+      </c>
+      <c r="G15" s="97">
+        <v>1</v>
+      </c>
+      <c r="H15" s="39">
+        <v>1</v>
+      </c>
+      <c r="I15" s="39">
+        <v>1</v>
+      </c>
+      <c r="J15" s="97">
+        <v>1</v>
+      </c>
+      <c r="K15" s="109">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4110,29 +5812,29 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
-        <v>12</v>
-      </c>
-      <c r="G16" s="38">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38">
-        <v>2</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="38">
-        <v>2</v>
+      <c r="D16" s="110">
+        <v>6</v>
+      </c>
+      <c r="E16" s="101">
+        <v>5</v>
+      </c>
+      <c r="F16" s="100">
+        <v>2</v>
+      </c>
+      <c r="G16" s="101">
+        <v>5</v>
+      </c>
+      <c r="H16" s="100">
+        <v>4</v>
+      </c>
+      <c r="I16" s="101">
+        <v>8</v>
+      </c>
+      <c r="J16" s="101">
+        <v>4</v>
+      </c>
+      <c r="K16" s="111">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,29 +5847,29 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
-        <v>258</v>
-      </c>
-      <c r="E17" s="39">
-        <v>169</v>
-      </c>
-      <c r="F17" s="38">
-        <v>180</v>
-      </c>
-      <c r="G17" s="39">
-        <v>177</v>
-      </c>
-      <c r="H17" s="39">
-        <v>158</v>
-      </c>
-      <c r="I17" s="38">
-        <v>71</v>
-      </c>
-      <c r="J17" s="38">
-        <v>232</v>
-      </c>
-      <c r="K17" s="39">
-        <v>281</v>
+      <c r="D17" s="107">
+        <v>1</v>
+      </c>
+      <c r="E17" s="105">
+        <v>1</v>
+      </c>
+      <c r="F17" s="104">
+        <v>1</v>
+      </c>
+      <c r="G17" s="105">
+        <v>1</v>
+      </c>
+      <c r="H17" s="105">
+        <v>1</v>
+      </c>
+      <c r="I17" s="104">
+        <v>1</v>
+      </c>
+      <c r="J17" s="104">
+        <v>1</v>
+      </c>
+      <c r="K17" s="112">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4175,29 +5877,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39">
-        <v>281</v>
-      </c>
-      <c r="E18" s="38">
-        <v>281</v>
-      </c>
-      <c r="F18" s="38">
-        <v>251</v>
+      <c r="D18" s="96">
+        <v>3</v>
+      </c>
+      <c r="E18" s="39">
+        <v>2</v>
+      </c>
+      <c r="F18" s="97">
+        <v>4</v>
       </c>
       <c r="G18" s="39">
-        <v>121</v>
-      </c>
-      <c r="H18" s="39">
-        <v>277</v>
-      </c>
-      <c r="I18" s="38">
-        <v>79</v>
-      </c>
-      <c r="J18" s="38">
-        <v>206</v>
-      </c>
-      <c r="K18" s="39">
-        <v>281</v>
+        <v>3</v>
+      </c>
+      <c r="H18" s="97">
+        <v>4</v>
+      </c>
+      <c r="I18" s="97">
+        <v>2</v>
+      </c>
+      <c r="J18" s="97">
+        <v>2</v>
+      </c>
+      <c r="K18" s="98">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4208,29 +5910,29 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
-        <v>15</v>
-      </c>
-      <c r="E19" s="38">
-        <v>145</v>
-      </c>
-      <c r="F19" s="38">
-        <v>158</v>
+      <c r="D19" s="96">
+        <v>1</v>
+      </c>
+      <c r="E19" s="97">
+        <v>1</v>
+      </c>
+      <c r="F19" s="97">
+        <v>1</v>
       </c>
       <c r="G19" s="39">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="H19" s="39">
-        <v>217</v>
-      </c>
-      <c r="I19" s="39">
-        <v>89</v>
-      </c>
-      <c r="J19" s="38">
-        <v>116</v>
-      </c>
-      <c r="K19" s="38">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="I19" s="97">
+        <v>1</v>
+      </c>
+      <c r="J19" s="97">
+        <v>1</v>
+      </c>
+      <c r="K19" s="98">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4239,29 +5941,29 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38">
-        <v>13</v>
-      </c>
-      <c r="E20" s="38">
-        <v>243</v>
-      </c>
-      <c r="F20" s="38">
-        <v>213</v>
-      </c>
-      <c r="G20" s="39">
-        <v>226</v>
-      </c>
-      <c r="H20" s="39">
-        <v>217</v>
-      </c>
-      <c r="I20" s="38">
-        <v>95</v>
-      </c>
-      <c r="J20" s="38">
-        <v>52</v>
-      </c>
-      <c r="K20" s="39">
-        <v>243</v>
+      <c r="D20" s="99">
+        <v>4</v>
+      </c>
+      <c r="E20" s="100">
+        <v>5</v>
+      </c>
+      <c r="F20" s="101">
+        <v>2</v>
+      </c>
+      <c r="G20" s="100">
+        <v>6</v>
+      </c>
+      <c r="H20" s="101">
+        <v>7</v>
+      </c>
+      <c r="I20" s="101">
+        <v>8</v>
+      </c>
+      <c r="J20" s="101">
+        <v>3</v>
+      </c>
+      <c r="K20" s="102">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,12 +6147,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4468,19 +6170,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="A1" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4528,29 +6230,29 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E5" s="38">
-        <v>100.1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>46.8</v>
-      </c>
-      <c r="G5" s="39">
-        <v>151.4</v>
-      </c>
-      <c r="H5" s="39">
-        <v>178.6</v>
-      </c>
-      <c r="I5" s="39">
-        <v>176.3</v>
-      </c>
-      <c r="J5" s="38">
-        <v>7.5</v>
-      </c>
-      <c r="K5" s="38">
-        <v>95.6</v>
+      <c r="D5" s="92">
+        <v>1</v>
+      </c>
+      <c r="E5" s="93">
+        <v>1</v>
+      </c>
+      <c r="F5" s="93">
+        <v>1</v>
+      </c>
+      <c r="G5" s="94">
+        <v>1</v>
+      </c>
+      <c r="H5" s="94">
+        <v>1</v>
+      </c>
+      <c r="I5" s="93">
+        <v>1</v>
+      </c>
+      <c r="J5" s="93">
+        <v>1</v>
+      </c>
+      <c r="K5" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4558,29 +6260,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
-        <v>16.7</v>
-      </c>
-      <c r="E6" s="38">
-        <v>156.80000000000001</v>
-      </c>
-      <c r="F6" s="38">
-        <v>33.1</v>
-      </c>
-      <c r="G6" s="39">
-        <v>152.1</v>
+      <c r="D6" s="96">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6" s="39">
+        <v>3.9</v>
+      </c>
+      <c r="F6" s="97">
+        <v>3</v>
+      </c>
+      <c r="G6" s="97">
+        <v>5.4</v>
       </c>
       <c r="H6" s="39">
-        <v>164.9</v>
-      </c>
-      <c r="I6" s="39">
-        <v>173.8</v>
-      </c>
-      <c r="J6" s="38">
-        <v>7.6</v>
-      </c>
-      <c r="K6" s="39">
-        <v>158.1</v>
+        <v>4.8</v>
+      </c>
+      <c r="I6" s="97">
+        <v>3.8</v>
+      </c>
+      <c r="J6" s="97">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K6" s="98">
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4591,29 +6293,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>22.3</v>
-      </c>
-      <c r="E7" s="38">
-        <v>85.7</v>
-      </c>
-      <c r="F7" s="38">
-        <v>68.7</v>
-      </c>
-      <c r="G7" s="39">
-        <v>156.5</v>
+      <c r="D7" s="96">
+        <v>1</v>
+      </c>
+      <c r="E7" s="97">
+        <v>1</v>
+      </c>
+      <c r="F7" s="97">
+        <v>1</v>
+      </c>
+      <c r="G7" s="97">
+        <v>1</v>
       </c>
       <c r="H7" s="39">
-        <v>158.80000000000001</v>
+        <v>1</v>
       </c>
       <c r="I7" s="39">
-        <v>202.7</v>
-      </c>
-      <c r="J7" s="38">
-        <v>12.4</v>
-      </c>
-      <c r="K7" s="38">
-        <v>135.5</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="97">
+        <v>1</v>
+      </c>
+      <c r="K7" s="98">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4622,29 +6324,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E8" s="38">
-        <v>132.5</v>
-      </c>
-      <c r="F8" s="38">
-        <v>47.4</v>
-      </c>
-      <c r="G8" s="39">
-        <v>204.5</v>
-      </c>
-      <c r="H8" s="38">
-        <v>136.4</v>
-      </c>
-      <c r="I8" s="39">
-        <v>168.1</v>
-      </c>
-      <c r="J8" s="38">
-        <v>15.6</v>
-      </c>
-      <c r="K8" s="39">
-        <v>165.8</v>
+      <c r="D8" s="99">
+        <v>3.6</v>
+      </c>
+      <c r="E8" s="100">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F8" s="101">
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="100">
+        <v>3.8</v>
+      </c>
+      <c r="H8" s="101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I8" s="101">
+        <v>3.1</v>
+      </c>
+      <c r="J8" s="101">
+        <v>3.8</v>
+      </c>
+      <c r="K8" s="102">
+        <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4657,29 +6359,29 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>73.2</v>
-      </c>
-      <c r="E9" s="38">
-        <v>46.8</v>
-      </c>
-      <c r="F9" s="38">
-        <v>124.9</v>
-      </c>
-      <c r="G9" s="39">
-        <v>160.4</v>
-      </c>
-      <c r="H9" s="39">
-        <v>195.5</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>73.2</v>
-      </c>
-      <c r="K9" s="39">
-        <v>195.6</v>
+      <c r="D9" s="103">
+        <v>1</v>
+      </c>
+      <c r="E9" s="104">
+        <v>1</v>
+      </c>
+      <c r="F9" s="105">
+        <v>1</v>
+      </c>
+      <c r="G9" s="105">
+        <v>1</v>
+      </c>
+      <c r="H9" s="105">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
+      <c r="J9" s="104">
+        <v>1</v>
+      </c>
+      <c r="K9" s="106">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4687,29 +6389,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
-        <v>76.3</v>
-      </c>
-      <c r="E10" s="38">
-        <v>129.5</v>
-      </c>
-      <c r="F10" s="38">
-        <v>51.6</v>
-      </c>
-      <c r="G10" s="39">
-        <v>160.30000000000001</v>
+      <c r="D10" s="96">
+        <v>4.3</v>
+      </c>
+      <c r="E10" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="97">
+        <v>3.4</v>
+      </c>
+      <c r="G10" s="97">
+        <v>4.9000000000000004</v>
       </c>
       <c r="H10" s="39">
-        <v>215</v>
-      </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
-        <v>67</v>
-      </c>
-      <c r="K10" s="39">
-        <v>180.7</v>
+        <v>5</v>
+      </c>
+      <c r="I10" s="97">
+        <v>6.4</v>
+      </c>
+      <c r="J10" s="97">
+        <v>3.2</v>
+      </c>
+      <c r="K10" s="98">
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4720,29 +6422,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>60</v>
-      </c>
-      <c r="E11" s="38">
-        <v>112</v>
-      </c>
-      <c r="F11" s="38">
-        <v>64.7</v>
+      <c r="D11" s="96">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="97">
+        <v>1</v>
       </c>
       <c r="G11" s="39">
-        <v>142.4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="39">
-        <v>178</v>
-      </c>
-      <c r="I11" s="38">
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
-        <v>40.6</v>
-      </c>
-      <c r="K11" s="39">
-        <v>117.4</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="97">
+        <v>1</v>
+      </c>
+      <c r="J11" s="97">
+        <v>1</v>
+      </c>
+      <c r="K11" s="98">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4751,29 +6453,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="E12" s="38">
-        <v>134</v>
-      </c>
-      <c r="F12" s="38">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="G12" s="39">
-        <v>149</v>
-      </c>
-      <c r="H12" s="39">
-        <v>174.7</v>
-      </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38">
-        <v>62.2</v>
-      </c>
-      <c r="K12" s="39">
-        <v>135.30000000000001</v>
+      <c r="D12" s="99">
+        <v>3.6</v>
+      </c>
+      <c r="E12" s="100">
+        <v>3.8</v>
+      </c>
+      <c r="F12" s="101">
+        <v>3.6</v>
+      </c>
+      <c r="G12" s="101">
+        <v>3.2</v>
+      </c>
+      <c r="H12" s="100">
+        <v>5.3</v>
+      </c>
+      <c r="I12" s="101">
+        <v>5.9</v>
+      </c>
+      <c r="J12" s="101">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="102">
+        <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4786,29 +6488,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
-        <v>70</v>
-      </c>
-      <c r="E13" s="38">
-        <v>75.2</v>
-      </c>
-      <c r="F13" s="38">
-        <v>52.8</v>
-      </c>
-      <c r="G13" s="39">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="H13" s="38">
-        <v>57.8</v>
-      </c>
-      <c r="I13" s="39">
-        <v>67.5</v>
-      </c>
-      <c r="J13" s="38">
-        <v>48.6</v>
-      </c>
-      <c r="K13" s="39">
-        <v>59.7</v>
+      <c r="D13" s="107">
+        <v>1</v>
+      </c>
+      <c r="E13" s="104">
+        <v>1</v>
+      </c>
+      <c r="F13" s="104">
+        <v>1</v>
+      </c>
+      <c r="G13" s="105">
+        <v>1</v>
+      </c>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="105">
+        <v>1</v>
+      </c>
+      <c r="J13" s="104">
+        <v>1</v>
+      </c>
+      <c r="K13" s="106">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4816,29 +6518,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
-        <v>67.8</v>
-      </c>
-      <c r="E14" s="38">
-        <v>49.8</v>
-      </c>
-      <c r="F14" s="38">
-        <v>57.7</v>
-      </c>
-      <c r="G14" s="41">
-        <v>58.9</v>
-      </c>
-      <c r="H14" s="38">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="I14" s="39">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="J14" s="38">
-        <v>41.1</v>
-      </c>
-      <c r="K14" s="39">
-        <v>55.7</v>
+      <c r="D14" s="96">
+        <v>3.2</v>
+      </c>
+      <c r="E14" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F14" s="97">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="39">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H14" s="97">
+        <v>3.9</v>
+      </c>
+      <c r="I14" s="97">
+        <v>7.6</v>
+      </c>
+      <c r="J14" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="K14" s="98">
+        <v>5.2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4849,29 +6551,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>2</v>
-      </c>
-      <c r="G15" s="38">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>2</v>
-      </c>
-      <c r="I15" s="38">
-        <v>2</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="38">
-        <v>2</v>
+      <c r="D15" s="108">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
+      <c r="F15" s="97">
+        <v>1</v>
+      </c>
+      <c r="G15" s="97">
+        <v>1</v>
+      </c>
+      <c r="H15" s="39">
+        <v>1</v>
+      </c>
+      <c r="I15" s="39">
+        <v>1</v>
+      </c>
+      <c r="J15" s="97">
+        <v>1</v>
+      </c>
+      <c r="K15" s="109">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4880,29 +6582,29 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
-        <v>8</v>
-      </c>
-      <c r="G16" s="38">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38">
-        <v>2</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="38">
-        <v>2</v>
+      <c r="D16" s="110">
+        <v>4.3</v>
+      </c>
+      <c r="E16" s="101">
+        <v>4.8</v>
+      </c>
+      <c r="F16" s="100">
+        <v>3.6</v>
+      </c>
+      <c r="G16" s="101">
+        <v>5.3</v>
+      </c>
+      <c r="H16" s="100">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I16" s="101">
+        <v>6.5</v>
+      </c>
+      <c r="J16" s="101">
+        <v>3.6</v>
+      </c>
+      <c r="K16" s="111">
+        <v>3.9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4915,29 +6617,29 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
-        <v>274.2</v>
-      </c>
-      <c r="E17" s="39">
-        <v>223.6</v>
-      </c>
-      <c r="F17" s="38">
-        <v>44.2</v>
-      </c>
-      <c r="G17" s="39">
-        <v>132.69999999999999</v>
-      </c>
-      <c r="H17" s="39">
-        <v>191.5</v>
-      </c>
-      <c r="I17" s="38">
-        <v>45.1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="K17" s="39">
-        <v>227.6</v>
+      <c r="D17" s="107">
+        <v>1</v>
+      </c>
+      <c r="E17" s="105">
+        <v>1</v>
+      </c>
+      <c r="F17" s="104">
+        <v>1</v>
+      </c>
+      <c r="G17" s="105">
+        <v>1</v>
+      </c>
+      <c r="H17" s="105">
+        <v>1</v>
+      </c>
+      <c r="I17" s="104">
+        <v>1</v>
+      </c>
+      <c r="J17" s="104">
+        <v>1</v>
+      </c>
+      <c r="K17" s="112">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4945,29 +6647,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39">
-        <v>275.10000000000002</v>
-      </c>
-      <c r="E18" s="38">
-        <v>234.1</v>
-      </c>
-      <c r="F18" s="38">
-        <v>79.7</v>
+      <c r="D18" s="96">
+        <v>3.4</v>
+      </c>
+      <c r="E18" s="39">
+        <v>4</v>
+      </c>
+      <c r="F18" s="97">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G18" s="39">
-        <v>134.1</v>
-      </c>
-      <c r="H18" s="39">
-        <v>212.2</v>
-      </c>
-      <c r="I18" s="38">
-        <v>55.1</v>
-      </c>
-      <c r="J18" s="38">
-        <v>46.9</v>
-      </c>
-      <c r="K18" s="39">
-        <v>204.7</v>
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="97">
+        <v>3.8</v>
+      </c>
+      <c r="I18" s="97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J18" s="97">
+        <v>4.2</v>
+      </c>
+      <c r="K18" s="98">
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4978,29 +6680,29 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
-        <v>12.8</v>
-      </c>
-      <c r="E19" s="38">
-        <v>125.3</v>
-      </c>
-      <c r="F19" s="38">
-        <v>54.9</v>
+      <c r="D19" s="96">
+        <v>1</v>
+      </c>
+      <c r="E19" s="97">
+        <v>1</v>
+      </c>
+      <c r="F19" s="97">
+        <v>1</v>
       </c>
       <c r="G19" s="39">
-        <v>95.2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="39">
-        <v>106.7</v>
-      </c>
-      <c r="I19" s="39">
-        <v>61.5</v>
-      </c>
-      <c r="J19" s="38">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="K19" s="38">
-        <v>81.5</v>
+        <v>1</v>
+      </c>
+      <c r="I19" s="97">
+        <v>1</v>
+      </c>
+      <c r="J19" s="97">
+        <v>1</v>
+      </c>
+      <c r="K19" s="98">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5009,1568 +6711,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38">
-        <v>12.3</v>
-      </c>
-      <c r="E20" s="38">
-        <v>152</v>
-      </c>
-      <c r="F20" s="38">
-        <v>71</v>
-      </c>
-      <c r="G20" s="39">
-        <v>160.4</v>
-      </c>
-      <c r="H20" s="39">
-        <v>171.1</v>
-      </c>
-      <c r="I20" s="38">
-        <v>43.6</v>
-      </c>
-      <c r="J20" s="38">
-        <v>27.7</v>
-      </c>
-      <c r="K20" s="39">
-        <v>140.80000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="38">
-        <v>2</v>
-      </c>
-      <c r="E6" s="38">
-        <v>5</v>
-      </c>
-      <c r="F6" s="38">
-        <v>2</v>
-      </c>
-      <c r="G6" s="39">
-        <v>7</v>
-      </c>
-      <c r="H6" s="39">
-        <v>7</v>
-      </c>
-      <c r="I6" s="39">
-        <v>5</v>
-      </c>
-      <c r="J6" s="38">
-        <v>5</v>
-      </c>
-      <c r="K6" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="38">
-        <v>3</v>
-      </c>
-      <c r="E8" s="38">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39">
-        <v>7</v>
-      </c>
-      <c r="H8" s="38">
-        <v>6</v>
-      </c>
-      <c r="I8" s="39">
-        <v>2</v>
-      </c>
-      <c r="J8" s="38">
-        <v>7</v>
-      </c>
-      <c r="K8" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="38">
-        <v>3</v>
-      </c>
-      <c r="E10" s="38">
-        <v>3</v>
-      </c>
-      <c r="F10" s="38">
-        <v>2</v>
-      </c>
-      <c r="G10" s="39">
-        <v>5</v>
-      </c>
-      <c r="H10" s="39">
-        <v>7</v>
-      </c>
-      <c r="I10" s="38">
-        <v>5</v>
-      </c>
-      <c r="J10" s="38">
-        <v>3</v>
-      </c>
-      <c r="K10" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38">
-        <v>5</v>
-      </c>
-      <c r="F12" s="38">
-        <v>2</v>
-      </c>
-      <c r="G12" s="39">
-        <v>4</v>
-      </c>
-      <c r="H12" s="39">
-        <v>7</v>
-      </c>
-      <c r="I12" s="38">
-        <v>9</v>
-      </c>
-      <c r="J12" s="38">
-        <v>2</v>
-      </c>
-      <c r="K12" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="38">
-        <v>2</v>
-      </c>
-      <c r="E14" s="38">
-        <v>5</v>
-      </c>
-      <c r="F14" s="38">
-        <v>2</v>
-      </c>
-      <c r="G14" s="41">
-        <v>7</v>
-      </c>
-      <c r="H14" s="38">
-        <v>3</v>
-      </c>
-      <c r="I14" s="39">
-        <v>4</v>
-      </c>
-      <c r="J14" s="38">
-        <v>2</v>
-      </c>
-      <c r="K14" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="38">
-        <v>6</v>
-      </c>
-      <c r="E16" s="38">
-        <v>5</v>
-      </c>
-      <c r="F16" s="38">
-        <v>2</v>
-      </c>
-      <c r="G16" s="38">
-        <v>5</v>
-      </c>
-      <c r="H16" s="38">
-        <v>4</v>
-      </c>
-      <c r="I16" s="38">
-        <v>8</v>
-      </c>
-      <c r="J16" s="38">
-        <v>4</v>
-      </c>
-      <c r="K16" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="39">
-        <v>1</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="39">
-        <v>3</v>
-      </c>
-      <c r="E18" s="38">
-        <v>2</v>
-      </c>
-      <c r="F18" s="38">
-        <v>4</v>
-      </c>
-      <c r="G18" s="39">
-        <v>3</v>
-      </c>
-      <c r="H18" s="39">
-        <v>4</v>
-      </c>
-      <c r="I18" s="38">
-        <v>2</v>
-      </c>
-      <c r="J18" s="38">
-        <v>2</v>
-      </c>
-      <c r="K18" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="38">
-        <v>4</v>
-      </c>
-      <c r="E20" s="38">
-        <v>5</v>
-      </c>
-      <c r="F20" s="38">
-        <v>2</v>
-      </c>
-      <c r="G20" s="39">
-        <v>6</v>
-      </c>
-      <c r="H20" s="39">
-        <v>7</v>
-      </c>
-      <c r="I20" s="38">
-        <v>8</v>
-      </c>
-      <c r="J20" s="38">
-        <v>3</v>
-      </c>
-      <c r="K20" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D20" s="99">
         <v>3.9</v>
       </c>
-      <c r="F6" s="38">
-        <v>3</v>
-      </c>
-      <c r="G6" s="39">
-        <v>5.4</v>
-      </c>
-      <c r="H6" s="39">
+      <c r="E20" s="100">
         <v>4.8</v>
       </c>
-      <c r="I6" s="39">
+      <c r="F20" s="101">
+        <v>3.7</v>
+      </c>
+      <c r="G20" s="100">
+        <v>5.3</v>
+      </c>
+      <c r="H20" s="101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I20" s="101">
+        <v>5.2</v>
+      </c>
+      <c r="J20" s="101">
         <v>3.8</v>
       </c>
-      <c r="J6" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K6" s="39">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="E8" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F8" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="G8" s="39">
-        <v>3.8</v>
-      </c>
-      <c r="H8" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I8" s="39">
-        <v>3.1</v>
-      </c>
-      <c r="J8" s="38">
-        <v>3.8</v>
-      </c>
-      <c r="K8" s="39">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="38">
-        <v>4.3</v>
-      </c>
-      <c r="E10" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="F10" s="38">
-        <v>3.4</v>
-      </c>
-      <c r="G10" s="39">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H10" s="39">
-        <v>5</v>
-      </c>
-      <c r="I10" s="38">
-        <v>6.4</v>
-      </c>
-      <c r="J10" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="K10" s="39">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="E12" s="38">
-        <v>3.8</v>
-      </c>
-      <c r="F12" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="G12" s="39">
-        <v>3.2</v>
-      </c>
-      <c r="H12" s="39">
-        <v>5.3</v>
-      </c>
-      <c r="I12" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="J12" s="38">
-        <v>3.5</v>
-      </c>
-      <c r="K12" s="39">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="E14" s="38">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F14" s="38">
-        <v>3.4</v>
-      </c>
-      <c r="G14" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H14" s="38">
-        <v>3.9</v>
-      </c>
-      <c r="I14" s="39">
-        <v>7.6</v>
-      </c>
-      <c r="J14" s="38">
-        <v>3.5</v>
-      </c>
-      <c r="K14" s="39">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="38">
-        <v>4.3</v>
-      </c>
-      <c r="E16" s="38">
-        <v>4.8</v>
-      </c>
-      <c r="F16" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="G16" s="38">
-        <v>5.3</v>
-      </c>
-      <c r="H16" s="38">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I16" s="38">
-        <v>6.5</v>
-      </c>
-      <c r="J16" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="K16" s="38">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="39">
-        <v>1</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="39">
-        <v>3.4</v>
-      </c>
-      <c r="E18" s="38">
-        <v>4</v>
-      </c>
-      <c r="F18" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G18" s="39">
-        <v>4.2</v>
-      </c>
-      <c r="H18" s="39">
-        <v>3.8</v>
-      </c>
-      <c r="I18" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J18" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="K18" s="39">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="38">
-        <v>3.9</v>
-      </c>
-      <c r="E20" s="38">
-        <v>4.8</v>
-      </c>
-      <c r="F20" s="38">
-        <v>3.7</v>
-      </c>
-      <c r="G20" s="39">
-        <v>5.3</v>
-      </c>
-      <c r="H20" s="39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I20" s="38">
-        <v>5.2</v>
-      </c>
-      <c r="J20" s="38">
-        <v>3.8</v>
-      </c>
-      <c r="K20" s="39">
+      <c r="K20" s="102">
         <v>5.2</v>
       </c>
     </row>
@@ -6759,7 +6921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -6780,24 +6942,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6807,29 +6969,29 @@
       <c r="E3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="36" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="78" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="80"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6838,46 +7000,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6888,82 +7050,82 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
-        <v>1</v>
-      </c>
-      <c r="D5" s="74">
+      <c r="C5" s="43">
+        <v>1</v>
+      </c>
+      <c r="D5" s="72">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>0.5</v>
       </c>
-      <c r="F5" s="62">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62">
-        <v>1</v>
-      </c>
-      <c r="H5" s="62">
+      <c r="F5" s="60">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60">
+        <v>1</v>
+      </c>
+      <c r="H5" s="60">
         <v>3</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="60">
         <v>128</v>
       </c>
-      <c r="J5" s="62">
-        <v>2</v>
-      </c>
-      <c r="K5" s="62">
+      <c r="J5" s="60">
+        <v>2</v>
+      </c>
+      <c r="K5" s="60">
         <v>3</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>4</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="55">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="58">
         <v>0.05</v>
       </c>
-      <c r="O5" s="62">
-        <v>2</v>
-      </c>
-      <c r="P5" s="63">
+      <c r="O5" s="60">
+        <v>2</v>
+      </c>
+      <c r="P5" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="63">
         <v>4</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="53">
-        <v>2</v>
-      </c>
-      <c r="G6" s="54">
+      <c r="F6" s="51">
+        <v>2</v>
+      </c>
+      <c r="G6" s="52">
         <v>0.25</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="52">
         <v>0.25</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="K6" s="38">
         <v>2.6</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
@@ -6981,10 +7143,10 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="46">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="63">
         <v>8</v>
       </c>
       <c r="E7" s="38">
@@ -6993,71 +7155,71 @@
       <c r="F7" s="38">
         <v>0.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <v>8</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <v>3</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="52">
         <v>0.25</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="K7" s="38">
         <v>0.4</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="51">
         <v>16</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="66">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="65">
-        <v>2</v>
-      </c>
-      <c r="E8" s="56">
+      <c r="D8" s="63">
+        <v>2</v>
+      </c>
+      <c r="E8" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="53">
-        <v>2</v>
-      </c>
-      <c r="G8" s="53">
+      <c r="F8" s="51">
+        <v>2</v>
+      </c>
+      <c r="G8" s="51">
         <v>4</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="53">
-        <v>2</v>
-      </c>
-      <c r="L8" s="53">
+      <c r="K8" s="51">
+        <v>2</v>
+      </c>
+      <c r="L8" s="51">
         <v>32</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="54">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
@@ -7066,7 +7228,7 @@
       <c r="O8" s="38">
         <v>0.5</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="66">
         <v>0.25</v>
       </c>
     </row>
@@ -7077,91 +7239,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="62">
         <v>6.25E-2</v>
       </c>
       <c r="E9" s="38">
         <v>0.5</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="51">
         <v>4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="53">
-        <v>1</v>
-      </c>
-      <c r="I9" s="53">
+      <c r="H9" s="51">
+        <v>1</v>
+      </c>
+      <c r="I9" s="51">
         <v>8</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="K9" s="38">
         <v>2.4</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="51">
         <v>1024</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="54">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="65">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="53">
-        <v>2</v>
-      </c>
-      <c r="G10" s="53">
+      <c r="F10" s="51">
+        <v>2</v>
+      </c>
+      <c r="G10" s="51">
         <v>2</v>
       </c>
       <c r="H10" s="38">
         <v>0.6</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="K10" s="38">
         <v>2.8</v>
       </c>
-      <c r="L10" s="53">
-        <v>1</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="L10" s="51">
+        <v>1</v>
+      </c>
+      <c r="M10" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="N10" s="38">
         <v>0.1</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="51">
         <v>8</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="66">
         <v>0.25</v>
       </c>
     </row>
@@ -7170,16 +7332,16 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" s="65">
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="38">
         <v>0.5</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
@@ -7188,41 +7350,41 @@
       <c r="H11" s="38">
         <v>0.6</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="51">
         <v>32</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="51">
         <v>2</v>
       </c>
       <c r="K11" s="38">
         <v>2.6</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="51">
         <v>256</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="56">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="63">
         <v>4</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -7234,28 +7396,28 @@
       <c r="H12" s="38">
         <v>0.8</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="53">
-        <v>1</v>
-      </c>
-      <c r="L12" s="53">
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51">
         <v>256</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="65">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -7266,34 +7428,34 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="45">
-        <v>1</v>
-      </c>
-      <c r="D13" s="65">
-        <v>2</v>
-      </c>
-      <c r="E13" s="53">
-        <v>1</v>
-      </c>
-      <c r="F13" s="55">
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="63">
+        <v>2</v>
+      </c>
+      <c r="E13" s="51">
+        <v>1</v>
+      </c>
+      <c r="F13" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="52">
         <v>0.25</v>
       </c>
       <c r="H13" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="51">
         <v>4</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <v>9.765625E-4</v>
       </c>
       <c r="K13" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="51">
         <v>4</v>
       </c>
       <c r="M13" s="15">
@@ -7302,52 +7464,52 @@
       <c r="N13" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="63">
         <v>8</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>1.5625E-2</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="51">
         <v>4</v>
       </c>
       <c r="G14" s="15">
         <v>0.125</v>
       </c>
-      <c r="H14" s="53">
-        <v>2</v>
-      </c>
-      <c r="I14" s="56">
+      <c r="H14" s="51">
+        <v>2</v>
+      </c>
+      <c r="I14" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="K14" s="38">
         <v>2.6</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="54">
         <v>1.5625E-2</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="52">
         <v>0.05</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="51">
         <v>2</v>
       </c>
       <c r="P14" s="26">
@@ -7359,62 +7521,62 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="65">
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="63">
         <v>8</v>
       </c>
-      <c r="E15" s="53">
-        <v>1</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="E15" s="51">
+        <v>1</v>
+      </c>
+      <c r="F15" s="52">
         <v>0.25</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="51">
         <v>8</v>
       </c>
-      <c r="H15" s="53">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53">
+      <c r="H15" s="51">
+        <v>1</v>
+      </c>
+      <c r="I15" s="51">
         <v>64</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>512</v>
       </c>
       <c r="K15" s="38">
         <v>0.8</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="M15" s="53">
-        <v>1</v>
-      </c>
-      <c r="N15" s="54">
+      <c r="M15" s="51">
+        <v>1</v>
+      </c>
+      <c r="N15" s="52">
         <v>0.05</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="65">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>128</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <v>2</v>
       </c>
       <c r="G16" s="38">
@@ -7423,28 +7585,28 @@
       <c r="H16" s="38">
         <v>0.6</v>
       </c>
-      <c r="I16" s="53">
-        <v>1</v>
-      </c>
-      <c r="J16" s="56">
+      <c r="I16" s="51">
+        <v>1</v>
+      </c>
+      <c r="J16" s="54">
         <v>9.765625E-4</v>
       </c>
-      <c r="K16" s="53">
-        <v>2</v>
-      </c>
-      <c r="L16" s="53">
+      <c r="K16" s="51">
+        <v>2</v>
+      </c>
+      <c r="L16" s="51">
         <v>256</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="54">
         <v>7.8125E-3</v>
       </c>
       <c r="N16" s="38">
         <v>0.1</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="52">
         <v>0.25</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="67">
         <v>32</v>
       </c>
     </row>
@@ -7455,88 +7617,88 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="64">
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>4</v>
       </c>
       <c r="F17" s="15">
         <v>0.125</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="51">
         <v>4</v>
       </c>
       <c r="H17" s="38">
         <v>2.4</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="51">
         <v>32</v>
       </c>
       <c r="J17" s="38">
         <v>0.5</v>
       </c>
-      <c r="K17" s="53">
-        <v>1</v>
-      </c>
-      <c r="L17" s="53">
+      <c r="K17" s="51">
+        <v>1</v>
+      </c>
+      <c r="L17" s="51">
         <v>512</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N17" s="38">
         <v>0.1</v>
       </c>
-      <c r="O17" s="53">
-        <v>1</v>
-      </c>
-      <c r="P17" s="69">
+      <c r="O17" s="51">
+        <v>1</v>
+      </c>
+      <c r="P17" s="67">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="F18" s="53">
-        <v>2</v>
-      </c>
-      <c r="G18" s="53">
-        <v>2</v>
-      </c>
-      <c r="H18" s="53">
+      <c r="F18" s="51">
+        <v>2</v>
+      </c>
+      <c r="G18" s="51">
+        <v>2</v>
+      </c>
+      <c r="H18" s="51">
         <v>3</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="51">
         <v>8</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="K18" s="53">
-        <v>2</v>
-      </c>
-      <c r="L18" s="53">
+      <c r="K18" s="51">
+        <v>2</v>
+      </c>
+      <c r="L18" s="51">
         <v>1024</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N18" s="38">
         <v>0.1</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="51">
         <v>4</v>
       </c>
       <c r="P18" s="26">
@@ -7548,19 +7710,19 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="64">
+      <c r="C19" s="44">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62">
         <v>6.25E-2</v>
       </c>
       <c r="E19" s="38">
         <v>0.5</v>
       </c>
-      <c r="F19" s="53">
-        <v>2</v>
-      </c>
-      <c r="G19" s="53">
+      <c r="F19" s="51">
+        <v>2</v>
+      </c>
+      <c r="G19" s="51">
         <v>8</v>
       </c>
       <c r="H19" s="38">
@@ -7569,71 +7731,71 @@
       <c r="I19" s="15">
         <v>0.125</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="K19" s="38">
         <v>0.4</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="51">
         <v>256</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="54">
         <v>3.125E-2</v>
       </c>
       <c r="N19" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O19" s="53">
-        <v>1</v>
-      </c>
-      <c r="P19" s="68">
+      <c r="O19" s="51">
+        <v>1</v>
+      </c>
+      <c r="P19" s="66">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="64">
         <v>8</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <v>1.5625E-2</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="71">
         <v>4</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="69">
         <v>0.25</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="70">
         <v>2.8</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="57">
         <v>3.125E-2</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="57">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="70">
         <v>0.4</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="71">
         <v>256</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>3.125E-2</v>
       </c>
       <c r="N20" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O20" s="70">
+      <c r="O20" s="68">
         <v>6.25E-2</v>
       </c>
-      <c r="P20" s="75">
+      <c r="P20" s="73">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -7913,61 +8075,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="78" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="78" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="78" t="s">
+      <c r="M3" s="77"/>
+      <c r="N3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="79"/>
-      <c r="P3" s="78" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="78" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="80"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7979,52 +8141,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8038,52 +8200,52 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="50">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="49">
         <v>1024.001</v>
       </c>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="49">
         <v>1024.001</v>
       </c>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>1024.001</v>
       </c>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="49">
         <v>1024.001</v>
       </c>
     </row>
@@ -8092,52 +8254,52 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="53">
+      <c r="F6" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="52">
         <v>0.25</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <v>1024.001</v>
       </c>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="52">
         <v>0.25</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>-8</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R6" s="53">
-        <v>1</v>
-      </c>
-      <c r="S6" s="53">
+      <c r="R6" s="51">
+        <v>1</v>
+      </c>
+      <c r="S6" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -8149,52 +8311,52 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <v>0.25</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L7" s="53">
-        <v>1</v>
-      </c>
-      <c r="M7" s="53">
+      <c r="L7" s="51">
+        <v>1</v>
+      </c>
+      <c r="M7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="53">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="52">
         <v>0.25</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -8204,52 +8366,52 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0.25</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>64</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>1024.001</v>
       </c>
       <c r="J8" s="38">
         <v>0.5</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="51">
         <v>1024.001</v>
       </c>
       <c r="L8" s="38">
         <v>0.5</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="51">
         <v>1024.001</v>
       </c>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R8" s="53">
-        <v>1</v>
-      </c>
-      <c r="S8" s="53">
+      <c r="R8" s="51">
+        <v>1</v>
+      </c>
+      <c r="S8" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -8263,7 +8425,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>0.99</v>
       </c>
       <c r="E9" s="15">
@@ -8275,13 +8437,13 @@
       <c r="G9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="52">
         <v>0.99</v>
       </c>
       <c r="I9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="52">
         <v>0.99</v>
       </c>
       <c r="K9" s="15">
@@ -8296,10 +8458,10 @@
       <c r="N9" s="38">
         <v>0.4</v>
       </c>
-      <c r="O9" s="53">
-        <v>1</v>
-      </c>
-      <c r="P9" s="54">
+      <c r="O9" s="51">
+        <v>1</v>
+      </c>
+      <c r="P9" s="52">
         <v>0.99</v>
       </c>
       <c r="Q9" s="15">
@@ -8317,7 +8479,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="52">
         <v>0.99</v>
       </c>
       <c r="E10" s="15">
@@ -8329,7 +8491,7 @@
       <c r="G10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="52">
         <v>0.99</v>
       </c>
       <c r="I10" s="15">
@@ -8341,25 +8503,25 @@
       <c r="K10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="52">
         <v>0.01</v>
       </c>
       <c r="M10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="52">
         <v>0.99</v>
       </c>
-      <c r="O10" s="53">
-        <v>1</v>
-      </c>
-      <c r="P10" s="54">
+      <c r="O10" s="51">
+        <v>1</v>
+      </c>
+      <c r="P10" s="52">
         <v>0.99</v>
       </c>
       <c r="Q10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="52">
         <v>0.01</v>
       </c>
       <c r="S10" s="15">
@@ -8374,31 +8536,31 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="52">
         <v>0.9</v>
       </c>
       <c r="E11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>0.9</v>
       </c>
       <c r="G11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <v>0.99</v>
       </c>
       <c r="I11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="52">
         <v>0.99</v>
       </c>
       <c r="K11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="52">
         <v>0.99</v>
       </c>
       <c r="M11" s="15">
@@ -8407,10 +8569,10 @@
       <c r="N11" s="38">
         <v>0.7</v>
       </c>
-      <c r="O11" s="53">
-        <v>1</v>
-      </c>
-      <c r="P11" s="54">
+      <c r="O11" s="51">
+        <v>1</v>
+      </c>
+      <c r="P11" s="52">
         <v>0.99</v>
       </c>
       <c r="Q11" s="15">
@@ -8429,19 +8591,19 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>0.99</v>
       </c>
       <c r="E12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>0.01</v>
       </c>
       <c r="G12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="52">
         <v>0.99</v>
       </c>
       <c r="I12" s="15">
@@ -8453,7 +8615,7 @@
       <c r="K12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="52">
         <v>0.01</v>
       </c>
       <c r="M12" s="15">
@@ -8462,10 +8624,10 @@
       <c r="N12" s="38">
         <v>0.8</v>
       </c>
-      <c r="O12" s="53">
-        <v>1</v>
-      </c>
-      <c r="P12" s="54">
+      <c r="O12" s="51">
+        <v>1</v>
+      </c>
+      <c r="P12" s="52">
         <v>0.99</v>
       </c>
       <c r="Q12" s="15">
@@ -8488,19 +8650,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="51">
         <v>4.0009765625</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="51">
         <v>128.0009765625</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="I13" s="15">
@@ -8509,7 +8671,7 @@
       <c r="J13" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="51">
         <v>1024.0009765625</v>
       </c>
       <c r="L13" s="38">
@@ -8518,19 +8680,19 @@
       <c r="M13" s="15">
         <v>1.0009765625</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="53">
         <v>1.66015625E-2</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="53">
         <v>3.90625E-3</v>
       </c>
       <c r="S13" s="15">
@@ -8542,49 +8704,49 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="51">
         <v>512.0009765625</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <v>16.0009765625</v>
       </c>
       <c r="L14" s="15">
         <v>0.125</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="51">
         <v>512.0009765625</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="53">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="53">
         <v>1.5625E-2</v>
       </c>
       <c r="S14" s="15">
@@ -8599,49 +8761,49 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="51">
         <v>64</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="51">
         <v>256</v>
       </c>
       <c r="I15" s="38">
         <v>0.5009765625</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>16</v>
       </c>
       <c r="K15" s="15">
         <v>0.2509765625</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="51">
         <v>8</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="51">
         <v>1</v>
       </c>
       <c r="O15" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="51">
         <v>16</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="51">
         <v>512</v>
       </c>
       <c r="S15" s="15">
@@ -8654,13 +8816,13 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <v>128</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <v>1024</v>
       </c>
       <c r="G16" s="38">
@@ -8669,25 +8831,25 @@
       <c r="H16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="51">
         <v>2.0009765625</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="51">
         <v>4</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="N16" s="53">
-        <v>2</v>
-      </c>
-      <c r="O16" s="55">
+      <c r="N16" s="51">
+        <v>2</v>
+      </c>
+      <c r="O16" s="53">
         <v>2.9296875E-3</v>
       </c>
       <c r="P16" s="15">
@@ -8696,7 +8858,7 @@
       <c r="Q16" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="51">
         <v>32</v>
       </c>
       <c r="S16" s="15">
@@ -8713,28 +8875,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <v>16</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>1024.0009765625</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="51">
         <v>16</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="53">
         <v>6.34765625E-2</v>
       </c>
       <c r="L17" s="15">
@@ -8743,22 +8905,22 @@
       <c r="M17" s="38">
         <v>0.5009765625</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="51">
         <v>-128</v>
       </c>
       <c r="O17" s="15">
         <v>-9.765625E-4</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="51">
         <v>8.0009765625</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="51">
         <v>8</v>
       </c>
-      <c r="S17" s="53">
+      <c r="S17" s="51">
         <v>128.0009765625</v>
       </c>
     </row>
@@ -8767,37 +8929,37 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>16</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="51">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>1.5625E-2</v>
       </c>
       <c r="G18" s="38">
         <v>0.5009765625</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="51">
         <v>2.0009765625</v>
       </c>
-      <c r="J18" s="53">
-        <v>1</v>
-      </c>
-      <c r="K18" s="53">
+      <c r="J18" s="51">
+        <v>1</v>
+      </c>
+      <c r="K18" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="M18" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="53">
         <v>-64</v>
       </c>
       <c r="O18" s="15">
@@ -8806,13 +8968,13 @@
       <c r="P18" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="S18" s="53">
+      <c r="S18" s="51">
         <v>16.0009765625</v>
       </c>
     </row>
@@ -8824,49 +8986,49 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="52">
         <v>0.25</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>3.22265625E-2</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="51">
         <v>16.0009765625</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="52">
         <v>-0.25</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="51">
         <v>8.0009765625</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="53">
         <v>3.125E-2</v>
       </c>
       <c r="S19" s="15">
@@ -8879,40 +9041,40 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>4.8828125E-3</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>7.8125E-3</v>
       </c>
       <c r="I20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="53">
         <v>6.34765625E-2</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="51">
         <v>4</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="51">
         <v>8.0009765625</v>
       </c>
       <c r="P20" s="15">
@@ -8921,7 +9083,7 @@
       <c r="Q20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="S20" s="15">

--- a/results_analysis/spark_motorFailure_02_hold2.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F534F-EEE5-4C64-A476-1DBDD35840C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2941B30-E817-4C33-B371-B401F4686D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="734" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -148,8 +148,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -542,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,9 +654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,9 +700,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -826,6 +828,24 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,86 +864,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1228,19 +1200,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1309,7 +1281,7 @@
       <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="37">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1438,7 +1410,7 @@
       <c r="J9" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="69">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1696,7 +1668,7 @@
       <c r="J17" s="22">
         <v>0.73026315789473695</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="69">
         <v>0.92763157894736903</v>
       </c>
     </row>
@@ -2138,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C707ACE-26F3-4388-8D55-82B0DFD4CDEE}">
   <dimension ref="A2:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V38" activeCellId="8" sqref="P37 R37 V37 W37 P38 Q38 R38 T38 V38"/>
     </sheetView>
   </sheetViews>
@@ -2241,25 +2213,25 @@
       <c r="D4" s="29">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="12">
         <v>0.90789473684210498</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="12">
         <v>0.84868421052631604</v>
       </c>
-      <c r="G4" s="101">
+      <c r="G4" s="12">
         <v>0.95394736842105299</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="12">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="12">
         <v>0.92763157894736903</v>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K4" s="102">
+      <c r="K4" s="30">
         <v>0.94078947368421095</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -2271,28 +2243,28 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="115">
+      <c r="P4" s="29">
         <v>0.76973684210526305</v>
       </c>
-      <c r="Q4" s="101">
+      <c r="Q4" s="12">
         <v>0.90789473684210498</v>
       </c>
-      <c r="R4" s="101">
+      <c r="R4" s="12">
         <v>0.84868421052631604</v>
       </c>
-      <c r="S4" s="101">
+      <c r="S4" s="12">
         <v>0.95394736842105299</v>
       </c>
-      <c r="T4" s="101">
+      <c r="T4" s="12">
         <v>0.96710526315789502</v>
       </c>
-      <c r="U4" s="101">
+      <c r="U4" s="12">
         <v>0.92763157894736903</v>
       </c>
-      <c r="V4" s="101">
+      <c r="V4" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="W4" s="102">
+      <c r="W4" s="30">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -2331,28 +2303,28 @@
       <c r="O5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="116">
+      <c r="P5" s="14">
         <v>0.73684210526315796</v>
       </c>
-      <c r="Q5" s="116">
-        <v>1</v>
-      </c>
-      <c r="R5" s="116">
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
         <v>0.86184210526315796</v>
       </c>
-      <c r="S5" s="116">
+      <c r="S5" s="14">
         <v>0.96052631578947401</v>
       </c>
-      <c r="T5" s="116">
+      <c r="T5" s="14">
         <v>0.98026315789473695</v>
       </c>
-      <c r="U5" s="116">
+      <c r="U5" s="14">
         <v>0.93421052631579005</v>
       </c>
-      <c r="V5" s="116">
+      <c r="V5" s="14">
         <v>0.74342105263157898</v>
       </c>
-      <c r="W5" s="116">
+      <c r="W5" s="14">
         <v>0.98684210526315796</v>
       </c>
     </row>
@@ -2367,25 +2339,25 @@
       <c r="D6" s="14">
         <v>0.78947368421052599</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="15">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="15">
         <v>0.94736842105263197</v>
       </c>
-      <c r="J6" s="103">
+      <c r="J6" s="15">
         <v>0.77631578947368396</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="25">
         <v>0.94736842105263197</v>
       </c>
       <c r="M6" s="4"/>
@@ -2395,28 +2367,28 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="112">
+      <c r="P6" s="96">
         <v>0.78947368421052599</v>
       </c>
-      <c r="Q6" s="113">
+      <c r="Q6" s="97">
         <v>0.93421052631579005</v>
       </c>
-      <c r="R6" s="113">
+      <c r="R6" s="97">
         <v>0.90789473684210498</v>
       </c>
-      <c r="S6" s="103">
+      <c r="S6" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="T6" s="103">
+      <c r="T6" s="15">
         <v>0.95394736842105299</v>
       </c>
-      <c r="U6" s="113">
+      <c r="U6" s="97">
         <v>0.94736842105263197</v>
       </c>
-      <c r="V6" s="113">
+      <c r="V6" s="97">
         <v>0.77631578947368396</v>
       </c>
-      <c r="W6" s="114">
+      <c r="W6" s="98">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -2426,28 +2398,28 @@
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="93">
         <v>0.80263157894736903</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="94">
         <v>0.95394736842105299</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="19">
         <v>0.83552631578947401</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="94">
         <v>0.96052631578947401</v>
       </c>
-      <c r="H7" s="105">
+      <c r="H7" s="19">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J7" s="110">
+      <c r="J7" s="94">
         <v>0.71710526315789502</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="95">
         <v>0.97368421052631604</v>
       </c>
       <c r="M7" s="5"/>
@@ -2455,28 +2427,28 @@
       <c r="O7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="109">
+      <c r="P7" s="93">
         <v>0.80263157894736903</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="19">
         <v>0.95394736842105299</v>
       </c>
-      <c r="R7" s="105">
+      <c r="R7" s="19">
         <v>0.83552631578947401</v>
       </c>
-      <c r="S7" s="105">
+      <c r="S7" s="19">
         <v>0.96052631578947401</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="19">
         <v>0.94078947368421095</v>
       </c>
-      <c r="U7" s="105">
+      <c r="U7" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="V7" s="105">
+      <c r="V7" s="19">
         <v>0.71710526315789502</v>
       </c>
-      <c r="W7" s="106">
+      <c r="W7" s="26">
         <v>0.97368421052631604</v>
       </c>
     </row>
@@ -2493,25 +2465,25 @@
       <c r="D8" s="28">
         <v>0.93421052631579005</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="22">
         <v>0.83552631578947401</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="22">
         <v>0.98026315789473695</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="22">
         <v>0.96052631578947401</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="22">
         <v>0.97368421052631604</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="22">
         <v>0.5</v>
       </c>
-      <c r="J8" s="107">
+      <c r="J8" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K8" s="108">
+      <c r="K8" s="69">
         <v>0.94736842105263197</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -2523,28 +2495,28 @@
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="118">
+      <c r="P8" s="28">
         <v>0.93421052631579005</v>
       </c>
-      <c r="Q8" s="107">
+      <c r="Q8" s="22">
         <v>0.83552631578947401</v>
       </c>
-      <c r="R8" s="107">
+      <c r="R8" s="22">
         <v>0.98026315789473695</v>
       </c>
-      <c r="S8" s="107">
+      <c r="S8" s="22">
         <v>0.96052631578947401</v>
       </c>
-      <c r="T8" s="107">
+      <c r="T8" s="22">
         <v>0.97368421052631604</v>
       </c>
-      <c r="U8" s="107">
+      <c r="U8" s="22">
         <v>0.5</v>
       </c>
-      <c r="V8" s="107">
+      <c r="V8" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="W8" s="108">
+      <c r="W8" s="69">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -2554,28 +2526,28 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="96">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="97">
         <v>0.99342105263157898</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="97">
         <v>0.96710526315789502</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="97">
         <v>0.99342105263157898</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="15">
         <v>0.5</v>
       </c>
-      <c r="J9" s="103">
+      <c r="J9" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="K9" s="114">
+      <c r="K9" s="98">
         <v>0.99342105263157898</v>
       </c>
       <c r="M9" s="4"/>
@@ -2583,28 +2555,28 @@
       <c r="O9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="116">
+      <c r="P9" s="14">
         <v>0.94736842105263197</v>
       </c>
-      <c r="Q9" s="103">
+      <c r="Q9" s="15">
         <v>0.99342105263157898</v>
       </c>
-      <c r="R9" s="103">
+      <c r="R9" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="S9" s="103">
+      <c r="S9" s="15">
         <v>0.96710526315789502</v>
       </c>
-      <c r="T9" s="103">
+      <c r="T9" s="15">
         <v>0.99342105263157898</v>
       </c>
-      <c r="U9" s="103">
+      <c r="U9" s="15">
         <v>0.5</v>
       </c>
-      <c r="V9" s="103">
+      <c r="V9" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="W9" s="104">
+      <c r="W9" s="25">
         <v>0.99342105263157898</v>
       </c>
     </row>
@@ -2619,25 +2591,25 @@
       <c r="D10" s="14">
         <v>0.86842105263157898</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G10" s="103">
+      <c r="G10" s="15">
         <v>0.97368421052631604</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="15">
         <v>0.94736842105263197</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="15">
         <v>0.65789473684210498</v>
       </c>
-      <c r="J10" s="103">
+      <c r="J10" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="K10" s="104">
+      <c r="K10" s="25">
         <v>0.96710526315789502</v>
       </c>
       <c r="M10" s="4"/>
@@ -2647,28 +2619,28 @@
       <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="116">
+      <c r="P10" s="14">
         <v>0.86842105263157898</v>
       </c>
-      <c r="Q10" s="113">
+      <c r="Q10" s="97">
         <v>0.91447368421052599</v>
       </c>
-      <c r="R10" s="103">
+      <c r="R10" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="S10" s="113">
+      <c r="S10" s="97">
         <v>0.97368421052631604</v>
       </c>
-      <c r="T10" s="103">
+      <c r="T10" s="15">
         <v>0.94736842105263197</v>
       </c>
-      <c r="U10" s="113">
+      <c r="U10" s="97">
         <v>0.65789473684210498</v>
       </c>
-      <c r="V10" s="103">
+      <c r="V10" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="W10" s="114">
+      <c r="W10" s="98">
         <v>0.96710526315789502</v>
       </c>
     </row>
@@ -2678,28 +2650,28 @@
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="93">
         <v>0.94078947368421095</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="94">
         <v>0.99342105263157898</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="19">
         <v>0.90789473684210498</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="19">
         <v>0.95394736842105299</v>
       </c>
-      <c r="H11" s="110">
-        <v>1</v>
-      </c>
-      <c r="I11" s="105">
+      <c r="H11" s="94">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
         <v>0.63815789473684204</v>
       </c>
-      <c r="J11" s="110">
+      <c r="J11" s="94">
         <v>0.94078947368421095</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="95">
         <v>0.97368421052631604</v>
       </c>
       <c r="M11" s="5"/>
@@ -2707,28 +2679,28 @@
       <c r="O11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="109">
+      <c r="P11" s="93">
         <v>0.94078947368421095</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="19">
         <v>0.99342105263157898</v>
       </c>
-      <c r="R11" s="105">
+      <c r="R11" s="19">
         <v>0.90789473684210498</v>
       </c>
-      <c r="S11" s="105">
+      <c r="S11" s="19">
         <v>0.95394736842105299</v>
       </c>
-      <c r="T11" s="110">
-        <v>1</v>
-      </c>
-      <c r="U11" s="110">
+      <c r="T11" s="94">
+        <v>1</v>
+      </c>
+      <c r="U11" s="94">
         <v>0.63815789473684204</v>
       </c>
-      <c r="V11" s="110">
+      <c r="V11" s="94">
         <v>0.94078947368421095</v>
       </c>
-      <c r="W11" s="111">
+      <c r="W11" s="95">
         <v>0.97368421052631604</v>
       </c>
     </row>
@@ -2745,25 +2717,25 @@
       <c r="D12" s="28">
         <v>0.90131578947368396</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="22">
         <v>0.94078947368421095</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="22">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="22">
         <v>0.90789473684210498</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="22">
         <v>0.92763157894736903</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J12" s="107">
+      <c r="J12" s="22">
         <v>0.94078947368421095</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="69">
         <v>0.93421052631579005</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -2775,28 +2747,28 @@
       <c r="O12" s="3">
         <v>1</v>
       </c>
-      <c r="P12" s="118">
+      <c r="P12" s="28">
         <v>0.90131578947368396</v>
       </c>
-      <c r="Q12" s="107">
+      <c r="Q12" s="22">
         <v>0.94078947368421095</v>
       </c>
-      <c r="R12" s="107">
+      <c r="R12" s="22">
         <v>0.92763157894736903</v>
       </c>
-      <c r="S12" s="107">
+      <c r="S12" s="22">
         <v>0.90789473684210498</v>
       </c>
-      <c r="T12" s="107">
+      <c r="T12" s="22">
         <v>0.92763157894736903</v>
       </c>
-      <c r="U12" s="107">
+      <c r="U12" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="V12" s="107">
+      <c r="V12" s="22">
         <v>0.94078947368421095</v>
       </c>
-      <c r="W12" s="108">
+      <c r="W12" s="69">
         <v>0.93421052631579005</v>
       </c>
     </row>
@@ -2806,28 +2778,28 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="112">
+      <c r="D13" s="96">
         <v>0.91447368421052599</v>
       </c>
-      <c r="E13" s="113">
-        <v>1</v>
-      </c>
-      <c r="F13" s="103">
+      <c r="E13" s="97">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="G13" s="113">
-        <v>1</v>
-      </c>
-      <c r="H13" s="113">
+      <c r="G13" s="97">
+        <v>1</v>
+      </c>
+      <c r="H13" s="97">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="97">
         <v>0.95394736842105299</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="K13" s="114">
+      <c r="K13" s="98">
         <v>1</v>
       </c>
       <c r="M13" s="4"/>
@@ -2835,28 +2807,28 @@
       <c r="O13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="116">
+      <c r="P13" s="14">
         <v>0.91447368421052599</v>
       </c>
-      <c r="Q13" s="103">
-        <v>1</v>
-      </c>
-      <c r="R13" s="103">
+      <c r="Q13" s="15">
+        <v>1</v>
+      </c>
+      <c r="R13" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="S13" s="103">
-        <v>1</v>
-      </c>
-      <c r="T13" s="103">
+      <c r="S13" s="15">
+        <v>1</v>
+      </c>
+      <c r="T13" s="15">
         <v>0.96710526315789502</v>
       </c>
-      <c r="U13" s="103">
+      <c r="U13" s="15">
         <v>0.95394736842105299</v>
       </c>
-      <c r="V13" s="103">
+      <c r="V13" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="W13" s="104">
+      <c r="W13" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2871,25 +2843,25 @@
       <c r="D14" s="14">
         <v>0.92763157894736903</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="15">
         <v>0.96052631578947401</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J14" s="103">
+      <c r="J14" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="25">
         <v>0.92763157894736903</v>
       </c>
       <c r="M14" s="4"/>
@@ -2899,28 +2871,28 @@
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="112">
+      <c r="P14" s="96">
         <v>0.92763157894736903</v>
       </c>
-      <c r="Q14" s="103">
+      <c r="Q14" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="R14" s="103">
+      <c r="R14" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="S14" s="113">
+      <c r="S14" s="97">
         <v>0.96052631578947401</v>
       </c>
-      <c r="T14" s="113">
+      <c r="T14" s="97">
         <v>0.94078947368421095</v>
       </c>
-      <c r="U14" s="103">
+      <c r="U14" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="V14" s="103">
+      <c r="V14" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="W14" s="104">
+      <c r="W14" s="25">
         <v>0.92763157894736903</v>
       </c>
     </row>
@@ -2933,25 +2905,25 @@
       <c r="D15" s="18">
         <v>0.91447368421052599</v>
       </c>
-      <c r="E15" s="110">
-        <v>1</v>
-      </c>
-      <c r="F15" s="105">
+      <c r="E15" s="94">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G15" s="110">
-        <v>1</v>
-      </c>
-      <c r="H15" s="110">
+      <c r="G15" s="94">
+        <v>1</v>
+      </c>
+      <c r="H15" s="94">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="94">
         <v>0.96052631578947401</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="19">
         <v>0.89473684210526305</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="95">
         <v>1</v>
       </c>
       <c r="M15" s="5"/>
@@ -2959,28 +2931,28 @@
       <c r="O15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="117">
+      <c r="P15" s="18">
         <v>0.91447368421052599</v>
       </c>
-      <c r="Q15" s="105">
-        <v>1</v>
-      </c>
-      <c r="R15" s="110">
+      <c r="Q15" s="19">
+        <v>1</v>
+      </c>
+      <c r="R15" s="94">
         <v>0.92105263157894701</v>
       </c>
-      <c r="S15" s="105">
-        <v>1</v>
-      </c>
-      <c r="T15" s="105">
+      <c r="S15" s="19">
+        <v>1</v>
+      </c>
+      <c r="T15" s="19">
         <v>0.96710526315789502</v>
       </c>
-      <c r="U15" s="110">
+      <c r="U15" s="94">
         <v>0.96052631578947401</v>
       </c>
-      <c r="V15" s="110">
+      <c r="V15" s="94">
         <v>0.89473684210526305</v>
       </c>
-      <c r="W15" s="106">
+      <c r="W15" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2997,25 +2969,25 @@
       <c r="D16" s="28">
         <v>0.73026315789473695</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="22">
         <v>0.92763157894736903</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="22">
         <v>0.88815789473684204</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="22">
         <v>0.96710526315789502</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="22">
         <v>0.95394736842105299</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="22">
         <v>0.96052631578947401</v>
       </c>
-      <c r="J16" s="107">
+      <c r="J16" s="22">
         <v>0.73026315789473695</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="69">
         <v>0.92763157894736903</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -3027,28 +2999,28 @@
       <c r="O16" s="1">
         <v>1</v>
       </c>
-      <c r="P16" s="118">
+      <c r="P16" s="28">
         <v>0.73026315789473695</v>
       </c>
-      <c r="Q16" s="107">
+      <c r="Q16" s="22">
         <v>0.92763157894736903</v>
       </c>
-      <c r="R16" s="107">
+      <c r="R16" s="22">
         <v>0.88815789473684204</v>
       </c>
-      <c r="S16" s="107">
+      <c r="S16" s="22">
         <v>0.96710526315789502</v>
       </c>
-      <c r="T16" s="107">
+      <c r="T16" s="22">
         <v>0.95394736842105299</v>
       </c>
-      <c r="U16" s="107">
+      <c r="U16" s="22">
         <v>0.96052631578947401</v>
       </c>
-      <c r="V16" s="107">
+      <c r="V16" s="22">
         <v>0.73026315789473695</v>
       </c>
-      <c r="W16" s="108">
+      <c r="W16" s="69">
         <v>0.92763157894736903</v>
       </c>
     </row>
@@ -3061,25 +3033,25 @@
       <c r="D17" s="14">
         <v>0.71710526315789502</v>
       </c>
-      <c r="E17" s="113">
-        <v>1</v>
-      </c>
-      <c r="F17" s="103">
+      <c r="E17" s="97">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="G17" s="113">
-        <v>1</v>
-      </c>
-      <c r="H17" s="113">
+      <c r="G17" s="97">
+        <v>1</v>
+      </c>
+      <c r="H17" s="97">
         <v>0.98684210526315796</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I17" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="15">
         <v>0.75657894736842102</v>
       </c>
-      <c r="K17" s="114">
+      <c r="K17" s="98">
         <v>0.96710526315789502</v>
       </c>
       <c r="M17" s="4"/>
@@ -3087,28 +3059,28 @@
       <c r="O17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="116">
+      <c r="P17" s="14">
         <v>0.71710526315789502</v>
       </c>
-      <c r="Q17" s="103">
-        <v>1</v>
-      </c>
-      <c r="R17" s="103">
+      <c r="Q17" s="15">
+        <v>1</v>
+      </c>
+      <c r="R17" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="S17" s="103">
-        <v>1</v>
-      </c>
-      <c r="T17" s="103">
+      <c r="S17" s="15">
+        <v>1</v>
+      </c>
+      <c r="T17" s="15">
         <v>0.98684210526315796</v>
       </c>
-      <c r="U17" s="103">
+      <c r="U17" s="15">
         <v>0.93421052631579005</v>
       </c>
-      <c r="V17" s="103">
+      <c r="V17" s="15">
         <v>0.75657894736842102</v>
       </c>
-      <c r="W17" s="104">
+      <c r="W17" s="25">
         <v>0.96710526315789502</v>
       </c>
     </row>
@@ -3123,25 +3095,25 @@
       <c r="D18" s="14">
         <v>0.77631578947368396</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="G18" s="103">
+      <c r="G18" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H18" s="15">
         <v>0.96052631578947401</v>
       </c>
-      <c r="I18" s="103">
+      <c r="I18" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="J18" s="103">
+      <c r="J18" s="15">
         <v>0.73684210526315796</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="25">
         <v>0.94736842105263197</v>
       </c>
       <c r="M18" s="4"/>
@@ -3151,28 +3123,28 @@
       <c r="O18" s="1">
         <v>1</v>
       </c>
-      <c r="P18" s="112">
+      <c r="P18" s="96">
         <v>0.77631578947368396</v>
       </c>
-      <c r="Q18" s="103">
+      <c r="Q18" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="R18" s="103">
+      <c r="R18" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="S18" s="103">
+      <c r="S18" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="T18" s="113">
+      <c r="T18" s="97">
         <v>0.96052631578947401</v>
       </c>
-      <c r="U18" s="103">
+      <c r="U18" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="V18" s="113">
+      <c r="V18" s="97">
         <v>0.73684210526315796</v>
       </c>
-      <c r="W18" s="114">
+      <c r="W18" s="98">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -3185,25 +3157,25 @@
       <c r="D19" s="18">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E19" s="110">
-        <v>1</v>
-      </c>
-      <c r="F19" s="110">
+      <c r="E19" s="94">
+        <v>1</v>
+      </c>
+      <c r="F19" s="94">
         <v>0.90131578947368396</v>
       </c>
-      <c r="G19" s="105">
+      <c r="G19" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="94">
         <v>0.98684210526315796</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="94">
         <v>0.94736842105263197</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="94">
         <v>0.76315789473684204</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="95">
         <v>1</v>
       </c>
       <c r="M19" s="5"/>
@@ -3211,28 +3183,28 @@
       <c r="O19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="109">
+      <c r="P19" s="93">
         <v>0.76973684210526305</v>
       </c>
-      <c r="Q19" s="105">
-        <v>1</v>
-      </c>
-      <c r="R19" s="110">
+      <c r="Q19" s="19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="94">
         <v>0.90131578947368396</v>
       </c>
-      <c r="S19" s="105">
+      <c r="S19" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="T19" s="105">
+      <c r="T19" s="19">
         <v>0.98684210526315796</v>
       </c>
-      <c r="U19" s="110">
+      <c r="U19" s="94">
         <v>0.94736842105263197</v>
       </c>
-      <c r="V19" s="110">
+      <c r="V19" s="94">
         <v>0.76315789473684204</v>
       </c>
-      <c r="W19" s="111">
+      <c r="W19" s="95">
         <v>1</v>
       </c>
     </row>
@@ -3322,28 +3294,28 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="29">
         <v>0.69605263157894703</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="12">
         <v>0.73223684210526296</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F23" s="12">
         <v>0.71118421052631597</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="12">
         <v>0.85065789473684195</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="12">
         <v>0.87565789473684197</v>
       </c>
-      <c r="I23" s="101">
+      <c r="I23" s="12">
         <v>0.87236842105263201</v>
       </c>
-      <c r="J23" s="101">
+      <c r="J23" s="12">
         <v>0.61184210526315796</v>
       </c>
-      <c r="K23" s="102">
+      <c r="K23" s="30">
         <v>0.78092105263157896</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -3355,28 +3327,28 @@
       <c r="O23" s="3">
         <v>1</v>
       </c>
-      <c r="P23" s="115">
+      <c r="P23" s="29">
         <v>0.69605263157894703</v>
       </c>
-      <c r="Q23" s="101">
+      <c r="Q23" s="12">
         <v>0.73223684210526296</v>
       </c>
-      <c r="R23" s="101">
+      <c r="R23" s="12">
         <v>0.71118421052631597</v>
       </c>
-      <c r="S23" s="101">
+      <c r="S23" s="12">
         <v>0.85065789473684195</v>
       </c>
-      <c r="T23" s="101">
+      <c r="T23" s="12">
         <v>0.87565789473684197</v>
       </c>
-      <c r="U23" s="101">
+      <c r="U23" s="12">
         <v>0.87236842105263201</v>
       </c>
-      <c r="V23" s="101">
+      <c r="V23" s="12">
         <v>0.61184210526315796</v>
       </c>
-      <c r="W23" s="102">
+      <c r="W23" s="30">
         <v>0.78092105263157896</v>
       </c>
     </row>
@@ -3386,28 +3358,28 @@
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="116">
+      <c r="D24" s="14">
         <v>0.63289473684210495</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="97">
         <v>0.80197368421052595</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="15">
         <v>0.70657894736842097</v>
       </c>
-      <c r="G24" s="103">
+      <c r="G24" s="15">
         <v>0.84934210526315801</v>
       </c>
-      <c r="H24" s="103">
+      <c r="H24" s="15">
         <v>0.86315789473684201</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="15">
         <v>0.82039473684210495</v>
       </c>
-      <c r="J24" s="113">
+      <c r="J24" s="97">
         <v>0.64407894736842097</v>
       </c>
-      <c r="K24" s="114">
+      <c r="K24" s="98">
         <v>0.82499999999999996</v>
       </c>
       <c r="M24" s="4"/>
@@ -3415,28 +3387,28 @@
       <c r="O24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="116">
+      <c r="P24" s="14">
         <v>0.63289473684210495</v>
       </c>
-      <c r="Q24" s="103">
+      <c r="Q24" s="15">
         <v>0.80197368421052595</v>
       </c>
-      <c r="R24" s="103">
+      <c r="R24" s="15">
         <v>0.70657894736842097</v>
       </c>
-      <c r="S24" s="103">
+      <c r="S24" s="15">
         <v>0.84934210526315801</v>
       </c>
-      <c r="T24" s="103">
+      <c r="T24" s="15">
         <v>0.86315789473684201</v>
       </c>
-      <c r="U24" s="103">
+      <c r="U24" s="15">
         <v>0.82039473684210495</v>
       </c>
-      <c r="V24" s="103">
+      <c r="V24" s="15">
         <v>0.64407894736842097</v>
       </c>
-      <c r="W24" s="104">
+      <c r="W24" s="25">
         <v>0.82499999999999996</v>
       </c>
     </row>
@@ -3448,28 +3420,28 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="116">
+      <c r="D25" s="14">
         <v>0.70855263157894699</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="15">
         <v>0.78881578947368403</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="15">
         <v>0.83223684210526305</v>
       </c>
-      <c r="H25" s="103">
+      <c r="H25" s="15">
         <v>0.861184210526316</v>
       </c>
-      <c r="I25" s="103">
+      <c r="I25" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="J25" s="103">
+      <c r="J25" s="15">
         <v>0.67960526315789505</v>
       </c>
-      <c r="K25" s="104">
+      <c r="K25" s="25">
         <v>0.81118421052631595</v>
       </c>
       <c r="M25" s="4"/>
@@ -3479,28 +3451,28 @@
       <c r="O25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="112">
+      <c r="P25" s="96">
         <v>0.70855263157894699</v>
       </c>
-      <c r="Q25" s="113">
+      <c r="Q25" s="97">
         <v>0.78881578947368403</v>
       </c>
-      <c r="R25" s="113">
+      <c r="R25" s="97">
         <v>0.78355263157894695</v>
       </c>
-      <c r="S25" s="103">
+      <c r="S25" s="15">
         <v>0.83223684210526305</v>
       </c>
-      <c r="T25" s="103">
+      <c r="T25" s="15">
         <v>0.861184210526316</v>
       </c>
-      <c r="U25" s="103">
+      <c r="U25" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="V25" s="113">
+      <c r="V25" s="97">
         <v>0.67960526315789505</v>
       </c>
-      <c r="W25" s="114">
+      <c r="W25" s="98">
         <v>0.81118421052631595</v>
       </c>
     </row>
@@ -3510,28 +3482,28 @@
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="18">
         <v>0.68947368421052602</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="94">
         <v>0.80394736842105297</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="19">
         <v>0.74473684210526303</v>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="94">
         <v>0.88815789473684204</v>
       </c>
-      <c r="H26" s="105">
+      <c r="H26" s="19">
         <v>0.79671052631578898</v>
       </c>
-      <c r="I26" s="105">
+      <c r="I26" s="19">
         <v>0.75526315789473697</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="19">
         <v>0.65526315789473699</v>
       </c>
-      <c r="K26" s="111">
+      <c r="K26" s="95">
         <v>0.85263157894736796</v>
       </c>
       <c r="M26" s="5"/>
@@ -3539,28 +3511,28 @@
       <c r="O26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="109">
+      <c r="P26" s="93">
         <v>0.68947368421052602</v>
       </c>
-      <c r="Q26" s="110">
+      <c r="Q26" s="94">
         <v>0.80394736842105297</v>
       </c>
-      <c r="R26" s="110">
+      <c r="R26" s="94">
         <v>0.74473684210526303</v>
       </c>
-      <c r="S26" s="110">
+      <c r="S26" s="94">
         <v>0.88815789473684204</v>
       </c>
-      <c r="T26" s="105">
+      <c r="T26" s="19">
         <v>0.79671052631578898</v>
       </c>
-      <c r="U26" s="105">
+      <c r="U26" s="19">
         <v>0.75526315789473697</v>
       </c>
-      <c r="V26" s="110">
+      <c r="V26" s="94">
         <v>0.65526315789473699</v>
       </c>
-      <c r="W26" s="111">
+      <c r="W26" s="95">
         <v>0.85263157894736796</v>
       </c>
     </row>
@@ -3574,28 +3546,28 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="118">
+      <c r="D27" s="28">
         <v>0.77039473684210502</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="22">
         <v>0.731578947368421</v>
       </c>
-      <c r="F27" s="107">
+      <c r="F27" s="22">
         <v>0.84342105263157896</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G27" s="22">
         <v>0.86447368421052595</v>
       </c>
-      <c r="H27" s="107">
+      <c r="H27" s="22">
         <v>0.90723684210526301</v>
       </c>
-      <c r="I27" s="107">
+      <c r="I27" s="22">
         <v>0.5</v>
       </c>
-      <c r="J27" s="107">
+      <c r="J27" s="22">
         <v>0.79605263157894701</v>
       </c>
-      <c r="K27" s="108">
+      <c r="K27" s="69">
         <v>0.89144736842105299</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -3607,28 +3579,28 @@
       <c r="O27" s="3">
         <v>1</v>
       </c>
-      <c r="P27" s="118">
+      <c r="P27" s="28">
         <v>0.77039473684210502</v>
       </c>
-      <c r="Q27" s="107">
+      <c r="Q27" s="22">
         <v>0.731578947368421</v>
       </c>
-      <c r="R27" s="107">
+      <c r="R27" s="22">
         <v>0.84342105263157896</v>
       </c>
-      <c r="S27" s="107">
+      <c r="S27" s="22">
         <v>0.86447368421052595</v>
       </c>
-      <c r="T27" s="107">
+      <c r="T27" s="22">
         <v>0.90723684210526301</v>
       </c>
-      <c r="U27" s="107">
+      <c r="U27" s="22">
         <v>0.5</v>
       </c>
-      <c r="V27" s="107">
+      <c r="V27" s="22">
         <v>0.79605263157894701</v>
       </c>
-      <c r="W27" s="108">
+      <c r="W27" s="69">
         <v>0.89144736842105299</v>
       </c>
     </row>
@@ -3638,28 +3610,28 @@
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="116">
+      <c r="D28" s="14">
         <v>0.75789473684210495</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="97">
         <v>0.84276315789473699</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="15">
         <v>0.72368421052631604</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="97">
         <v>0.87763157894736898</v>
       </c>
-      <c r="H28" s="113">
+      <c r="H28" s="97">
         <v>0.955921052631579</v>
       </c>
-      <c r="I28" s="103">
+      <c r="I28" s="15">
         <v>0.5</v>
       </c>
-      <c r="J28" s="103">
+      <c r="J28" s="15">
         <v>0.72499999999999998</v>
       </c>
-      <c r="K28" s="104">
+      <c r="K28" s="25">
         <v>0.893421052631579</v>
       </c>
       <c r="M28" s="4"/>
@@ -3667,28 +3639,28 @@
       <c r="O28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="116">
+      <c r="P28" s="14">
         <v>0.75789473684210495</v>
       </c>
-      <c r="Q28" s="103">
+      <c r="Q28" s="15">
         <v>0.84276315789473699</v>
       </c>
-      <c r="R28" s="103">
+      <c r="R28" s="15">
         <v>0.72368421052631604</v>
       </c>
-      <c r="S28" s="103">
+      <c r="S28" s="15">
         <v>0.87763157894736898</v>
       </c>
-      <c r="T28" s="103">
+      <c r="T28" s="15">
         <v>0.955921052631579</v>
       </c>
-      <c r="U28" s="103">
+      <c r="U28" s="15">
         <v>0.5</v>
       </c>
-      <c r="V28" s="103">
+      <c r="V28" s="15">
         <v>0.72499999999999998</v>
       </c>
-      <c r="W28" s="104">
+      <c r="W28" s="25">
         <v>0.893421052631579</v>
       </c>
     </row>
@@ -3700,28 +3672,28 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="116">
+      <c r="D29" s="14">
         <v>0.82302631578947405</v>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="15">
         <v>0.75</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="15">
         <v>0.84276315789473699</v>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="15">
         <v>0.88947368421052597</v>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="15">
         <v>0.51315789473684204</v>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="15">
         <v>0.74671052631579005</v>
       </c>
-      <c r="K29" s="104">
+      <c r="K29" s="25">
         <v>0.79802631578947403</v>
       </c>
       <c r="M29" s="4"/>
@@ -3731,28 +3703,28 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="P29" s="112">
+      <c r="P29" s="96">
         <v>0.82302631578947405</v>
       </c>
-      <c r="Q29" s="113">
+      <c r="Q29" s="97">
         <v>0.75</v>
       </c>
-      <c r="R29" s="103">
+      <c r="R29" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="S29" s="103">
+      <c r="S29" s="15">
         <v>0.84276315789473699</v>
       </c>
-      <c r="T29" s="103">
+      <c r="T29" s="15">
         <v>0.88947368421052597</v>
       </c>
-      <c r="U29" s="113">
+      <c r="U29" s="97">
         <v>0.51315789473684204</v>
       </c>
-      <c r="V29" s="103">
+      <c r="V29" s="15">
         <v>0.74671052631579005</v>
       </c>
-      <c r="W29" s="104">
+      <c r="W29" s="25">
         <v>0.79802631578947403</v>
       </c>
     </row>
@@ -3762,28 +3734,28 @@
       <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="18">
         <v>0.76249999999999996</v>
       </c>
-      <c r="E30" s="110">
+      <c r="E30" s="94">
         <v>0.82960526315789496</v>
       </c>
-      <c r="F30" s="105">
+      <c r="F30" s="19">
         <v>0.73421052631578998</v>
       </c>
-      <c r="G30" s="110">
+      <c r="G30" s="94">
         <v>0.85131578947368403</v>
       </c>
-      <c r="H30" s="110">
+      <c r="H30" s="94">
         <v>0.91710526315789498</v>
       </c>
-      <c r="I30" s="105">
+      <c r="I30" s="19">
         <v>0.51118421052631602</v>
       </c>
-      <c r="J30" s="110">
+      <c r="J30" s="94">
         <v>0.74934210526315803</v>
       </c>
-      <c r="K30" s="111">
+      <c r="K30" s="95">
         <v>0.86315789473684201</v>
       </c>
       <c r="M30" s="5"/>
@@ -3791,28 +3763,28 @@
       <c r="O30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="109">
+      <c r="P30" s="93">
         <v>0.76249999999999996</v>
       </c>
-      <c r="Q30" s="105">
+      <c r="Q30" s="19">
         <v>0.82960526315789496</v>
       </c>
-      <c r="R30" s="110">
+      <c r="R30" s="94">
         <v>0.73421052631578998</v>
       </c>
-      <c r="S30" s="105">
+      <c r="S30" s="19">
         <v>0.85131578947368403</v>
       </c>
-      <c r="T30" s="105">
+      <c r="T30" s="19">
         <v>0.91710526315789498</v>
       </c>
-      <c r="U30" s="110">
+      <c r="U30" s="94">
         <v>0.51118421052631602</v>
       </c>
-      <c r="V30" s="110">
+      <c r="V30" s="94">
         <v>0.74934210526315803</v>
       </c>
-      <c r="W30" s="106">
+      <c r="W30" s="26">
         <v>0.86315789473684201</v>
       </c>
     </row>
@@ -3826,28 +3798,28 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="28">
         <v>0.86973684210526303</v>
       </c>
-      <c r="E31" s="107">
+      <c r="E31" s="22">
         <v>0.89013157894736805</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="22">
         <v>0.88223684210526299</v>
       </c>
-      <c r="G31" s="107">
+      <c r="G31" s="22">
         <v>0.87828947368421095</v>
       </c>
-      <c r="H31" s="107">
+      <c r="H31" s="22">
         <v>0.89671052631578896</v>
       </c>
-      <c r="I31" s="107">
+      <c r="I31" s="22">
         <v>0.88092105263157905</v>
       </c>
-      <c r="J31" s="107">
+      <c r="J31" s="22">
         <v>0.86052631578947403</v>
       </c>
-      <c r="K31" s="108">
+      <c r="K31" s="69">
         <v>0.888815789473684</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -3859,28 +3831,28 @@
       <c r="O31" s="3">
         <v>1</v>
       </c>
-      <c r="P31" s="118">
+      <c r="P31" s="28">
         <v>0.86973684210526303</v>
       </c>
-      <c r="Q31" s="107">
+      <c r="Q31" s="22">
         <v>0.89013157894736805</v>
       </c>
-      <c r="R31" s="107">
+      <c r="R31" s="22">
         <v>0.88223684210526299</v>
       </c>
-      <c r="S31" s="107">
+      <c r="S31" s="22">
         <v>0.87828947368421095</v>
       </c>
-      <c r="T31" s="107">
+      <c r="T31" s="22">
         <v>0.89671052631578896</v>
       </c>
-      <c r="U31" s="107">
+      <c r="U31" s="22">
         <v>0.88092105263157905</v>
       </c>
-      <c r="V31" s="107">
+      <c r="V31" s="22">
         <v>0.86052631578947403</v>
       </c>
-      <c r="W31" s="108">
+      <c r="W31" s="69">
         <v>0.888815789473684</v>
       </c>
     </row>
@@ -3890,28 +3862,28 @@
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D32" s="96">
         <v>0.88026315789473697</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="97">
         <v>0.99407894736842095</v>
       </c>
-      <c r="F32" s="103">
+      <c r="F32" s="15">
         <v>0.879605263157895</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="97">
         <v>0.99934210526315803</v>
       </c>
-      <c r="H32" s="113">
+      <c r="H32" s="97">
         <v>0.91249999999999998</v>
       </c>
-      <c r="I32" s="113">
+      <c r="I32" s="97">
         <v>0.91710526315789498</v>
       </c>
-      <c r="J32" s="103">
+      <c r="J32" s="15">
         <v>0.8</v>
       </c>
-      <c r="K32" s="114">
+      <c r="K32" s="98">
         <v>0.94802631578947405</v>
       </c>
       <c r="M32" s="4"/>
@@ -3919,28 +3891,28 @@
       <c r="O32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P32" s="116">
+      <c r="P32" s="14">
         <v>0.88026315789473697</v>
       </c>
-      <c r="Q32" s="103">
+      <c r="Q32" s="15">
         <v>0.99407894736842095</v>
       </c>
-      <c r="R32" s="103">
+      <c r="R32" s="15">
         <v>0.879605263157895</v>
       </c>
-      <c r="S32" s="103">
+      <c r="S32" s="15">
         <v>0.99934210526315803</v>
       </c>
-      <c r="T32" s="103">
+      <c r="T32" s="15">
         <v>0.91249999999999998</v>
       </c>
-      <c r="U32" s="103">
+      <c r="U32" s="15">
         <v>0.91710526315789498</v>
       </c>
-      <c r="V32" s="103">
+      <c r="V32" s="15">
         <v>0.8</v>
       </c>
-      <c r="W32" s="104">
+      <c r="W32" s="25">
         <v>0.94802631578947405</v>
       </c>
     </row>
@@ -3952,28 +3924,28 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="116">
+      <c r="D33" s="14">
         <v>0.89736842105263204</v>
       </c>
-      <c r="E33" s="103">
+      <c r="E33" s="15">
         <v>0.88355263157894803</v>
       </c>
-      <c r="F33" s="103">
+      <c r="F33" s="15">
         <v>0.884210526315789</v>
       </c>
-      <c r="G33" s="103">
+      <c r="G33" s="15">
         <v>0.88618421052631602</v>
       </c>
-      <c r="H33" s="103">
+      <c r="H33" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="I33" s="103">
+      <c r="I33" s="15">
         <v>0.888815789473684</v>
       </c>
-      <c r="J33" s="103">
+      <c r="J33" s="15">
         <v>0.85592105263157903</v>
       </c>
-      <c r="K33" s="104">
+      <c r="K33" s="25">
         <v>0.88552631578947405</v>
       </c>
       <c r="M33" s="4"/>
@@ -3983,28 +3955,28 @@
       <c r="O33" s="1">
         <v>1</v>
       </c>
-      <c r="P33" s="112">
+      <c r="P33" s="96">
         <v>0.89736842105263204</v>
       </c>
-      <c r="Q33" s="103">
+      <c r="Q33" s="15">
         <v>0.88355263157894803</v>
       </c>
-      <c r="R33" s="113">
+      <c r="R33" s="97">
         <v>0.884210526315789</v>
       </c>
-      <c r="S33" s="113">
+      <c r="S33" s="97">
         <v>0.88618421052631602</v>
       </c>
-      <c r="T33" s="103">
+      <c r="T33" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="U33" s="113">
+      <c r="U33" s="97">
         <v>0.888815789473684</v>
       </c>
-      <c r="V33" s="103">
+      <c r="V33" s="15">
         <v>0.85592105263157903</v>
       </c>
-      <c r="W33" s="104">
+      <c r="W33" s="25">
         <v>0.88552631578947405</v>
       </c>
     </row>
@@ -4014,28 +3986,28 @@
       <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="E34" s="110">
+      <c r="E34" s="94">
         <v>0.99802631578947398</v>
       </c>
-      <c r="F34" s="110">
+      <c r="F34" s="94">
         <v>0.89210526315789496</v>
       </c>
-      <c r="G34" s="110">
+      <c r="G34" s="94">
         <v>0.99276315789473701</v>
       </c>
-      <c r="H34" s="110">
+      <c r="H34" s="94">
         <v>0.89013157894736905</v>
       </c>
-      <c r="I34" s="110">
+      <c r="I34" s="94">
         <v>0.92960526315789505</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="K34" s="111">
+      <c r="K34" s="95">
         <v>0.95855263157894699</v>
       </c>
       <c r="M34" s="5"/>
@@ -4043,28 +4015,28 @@
       <c r="O34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P34" s="117">
+      <c r="P34" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="Q34" s="110">
+      <c r="Q34" s="94">
         <v>0.99802631578947398</v>
       </c>
-      <c r="R34" s="110">
+      <c r="R34" s="94">
         <v>0.89210526315789496</v>
       </c>
-      <c r="S34" s="105">
+      <c r="S34" s="19">
         <v>0.99276315789473701</v>
       </c>
-      <c r="T34" s="105">
+      <c r="T34" s="19">
         <v>0.89013157894736905</v>
       </c>
-      <c r="U34" s="110">
+      <c r="U34" s="94">
         <v>0.92960526315789505</v>
       </c>
-      <c r="V34" s="105">
+      <c r="V34" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="W34" s="111">
+      <c r="W34" s="95">
         <v>0.95855263157894699</v>
       </c>
     </row>
@@ -4078,28 +4050,28 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="118">
+      <c r="D35" s="28">
         <v>0.68618421052631595</v>
       </c>
-      <c r="E35" s="107">
+      <c r="E35" s="22">
         <v>0.79802631578947403</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F35" s="22">
         <v>0.78026315789473699</v>
       </c>
-      <c r="G35" s="107">
+      <c r="G35" s="22">
         <v>0.93684210526315803</v>
       </c>
-      <c r="H35" s="107">
+      <c r="H35" s="22">
         <v>0.884210526315789</v>
       </c>
-      <c r="I35" s="107">
+      <c r="I35" s="22">
         <v>0.83684210526315805</v>
       </c>
-      <c r="J35" s="107">
+      <c r="J35" s="22">
         <v>0.68026315789473701</v>
       </c>
-      <c r="K35" s="108">
+      <c r="K35" s="69">
         <v>0.740789473684211</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -4111,28 +4083,28 @@
       <c r="O35" s="1">
         <v>1</v>
       </c>
-      <c r="P35" s="118">
+      <c r="P35" s="28">
         <v>0.68618421052631595</v>
       </c>
-      <c r="Q35" s="107">
+      <c r="Q35" s="22">
         <v>0.79802631578947403</v>
       </c>
-      <c r="R35" s="107">
+      <c r="R35" s="22">
         <v>0.78026315789473699</v>
       </c>
-      <c r="S35" s="107">
+      <c r="S35" s="22">
         <v>0.93684210526315803</v>
       </c>
-      <c r="T35" s="107">
+      <c r="T35" s="22">
         <v>0.884210526315789</v>
       </c>
-      <c r="U35" s="107">
+      <c r="U35" s="22">
         <v>0.83684210526315805</v>
       </c>
-      <c r="V35" s="107">
+      <c r="V35" s="22">
         <v>0.68026315789473701</v>
       </c>
-      <c r="W35" s="108">
+      <c r="W35" s="69">
         <v>0.740789473684211</v>
       </c>
     </row>
@@ -4142,28 +4114,28 @@
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="112">
+      <c r="D36" s="96">
         <v>0.68092105263157898</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="97">
         <v>0.90197368421052604</v>
       </c>
-      <c r="F36" s="103">
+      <c r="F36" s="15">
         <v>0.74802631578947398</v>
       </c>
-      <c r="G36" s="103">
+      <c r="G36" s="15">
         <v>0.92236842105263195</v>
       </c>
-      <c r="H36" s="113">
+      <c r="H36" s="97">
         <v>0.94539473684210495</v>
       </c>
-      <c r="I36" s="113">
+      <c r="I36" s="97">
         <v>0.85197368421052599</v>
       </c>
-      <c r="J36" s="103">
+      <c r="J36" s="15">
         <v>0.64473684210526305</v>
       </c>
-      <c r="K36" s="114">
+      <c r="K36" s="98">
         <v>0.91973684210526296</v>
       </c>
       <c r="M36" s="4"/>
@@ -4171,28 +4143,28 @@
       <c r="O36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P36" s="116">
+      <c r="P36" s="14">
         <v>0.68092105263157898</v>
       </c>
-      <c r="Q36" s="103">
+      <c r="Q36" s="15">
         <v>0.90197368421052604</v>
       </c>
-      <c r="R36" s="103">
+      <c r="R36" s="15">
         <v>0.74802631578947398</v>
       </c>
-      <c r="S36" s="103">
+      <c r="S36" s="15">
         <v>0.92236842105263195</v>
       </c>
-      <c r="T36" s="103">
+      <c r="T36" s="15">
         <v>0.94539473684210495</v>
       </c>
-      <c r="U36" s="103">
+      <c r="U36" s="15">
         <v>0.85197368421052599</v>
       </c>
-      <c r="V36" s="103">
+      <c r="V36" s="15">
         <v>0.64473684210526305</v>
       </c>
-      <c r="W36" s="104">
+      <c r="W36" s="25">
         <v>0.91973684210526296</v>
       </c>
     </row>
@@ -4204,28 +4176,28 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="116">
+      <c r="D37" s="14">
         <v>0.71447368421052604</v>
       </c>
-      <c r="E37" s="103">
+      <c r="E37" s="15">
         <v>0.77434210526315805</v>
       </c>
-      <c r="F37" s="103">
+      <c r="F37" s="15">
         <v>0.78092105263157896</v>
       </c>
-      <c r="G37" s="103">
+      <c r="G37" s="15">
         <v>0.89802631578947401</v>
       </c>
-      <c r="H37" s="103">
+      <c r="H37" s="15">
         <v>0.794078947368421</v>
       </c>
-      <c r="I37" s="103">
+      <c r="I37" s="15">
         <v>0.79342105263157903</v>
       </c>
-      <c r="J37" s="103">
+      <c r="J37" s="15">
         <v>0.68947368421052602</v>
       </c>
-      <c r="K37" s="104">
+      <c r="K37" s="25">
         <v>0.79605263157894701</v>
       </c>
       <c r="M37" s="4"/>
@@ -4235,28 +4207,28 @@
       <c r="O37" s="1">
         <v>1</v>
       </c>
-      <c r="P37" s="112">
+      <c r="P37" s="96">
         <v>0.71447368421052604</v>
       </c>
-      <c r="Q37" s="103">
+      <c r="Q37" s="15">
         <v>0.77434210526315805</v>
       </c>
-      <c r="R37" s="113">
+      <c r="R37" s="97">
         <v>0.78092105263157896</v>
       </c>
-      <c r="S37" s="103">
+      <c r="S37" s="15">
         <v>0.89802631578947401</v>
       </c>
-      <c r="T37" s="103">
+      <c r="T37" s="15">
         <v>0.794078947368421</v>
       </c>
-      <c r="U37" s="103">
+      <c r="U37" s="15">
         <v>0.79342105263157903</v>
       </c>
-      <c r="V37" s="113">
+      <c r="V37" s="97">
         <v>0.68947368421052602</v>
       </c>
-      <c r="W37" s="114">
+      <c r="W37" s="98">
         <v>0.79605263157894701</v>
       </c>
     </row>
@@ -4266,28 +4238,28 @@
       <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="18">
         <v>0.70197368421052597</v>
       </c>
-      <c r="E38" s="110">
+      <c r="E38" s="94">
         <v>0.92302631578947403</v>
       </c>
-      <c r="F38" s="110">
+      <c r="F38" s="94">
         <v>0.78157894736842104</v>
       </c>
-      <c r="G38" s="110">
+      <c r="G38" s="94">
         <v>0.90394736842105305</v>
       </c>
-      <c r="H38" s="110">
+      <c r="H38" s="94">
         <v>0.95657894736842097</v>
       </c>
-      <c r="I38" s="110">
+      <c r="I38" s="94">
         <v>0.80921052631578905</v>
       </c>
-      <c r="J38" s="105">
+      <c r="J38" s="19">
         <v>0.68684210526315803</v>
       </c>
-      <c r="K38" s="111">
+      <c r="K38" s="95">
         <v>0.89736842105263204</v>
       </c>
       <c r="M38" s="5"/>
@@ -4295,34 +4267,34 @@
       <c r="O38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P38" s="109">
+      <c r="P38" s="93">
         <v>0.70197368421052597</v>
       </c>
-      <c r="Q38" s="110">
+      <c r="Q38" s="94">
         <v>0.92302631578947403</v>
       </c>
-      <c r="R38" s="110">
+      <c r="R38" s="94">
         <v>0.78157894736842104</v>
       </c>
-      <c r="S38" s="105">
+      <c r="S38" s="19">
         <v>0.90394736842105305</v>
       </c>
-      <c r="T38" s="110">
+      <c r="T38" s="94">
         <v>0.95657894736842097</v>
       </c>
-      <c r="U38" s="105">
+      <c r="U38" s="19">
         <v>0.80921052631578905</v>
       </c>
-      <c r="V38" s="110">
+      <c r="V38" s="94">
         <v>0.68684210526315803</v>
       </c>
-      <c r="W38" s="106">
+      <c r="W38" s="26">
         <v>0.89736842105263204</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4334,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,19 +4325,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4422,13 +4394,13 @@
       <c r="F5" s="12">
         <v>0.71118421052631597</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="110">
         <v>0.85065789473684195</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="110">
         <v>0.87565789473684197</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="110">
         <v>0.87236842105263201</v>
       </c>
       <c r="J5" s="12">
@@ -4452,10 +4424,10 @@
       <c r="F6" s="15">
         <v>0.70657894736842097</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="109">
         <v>0.84934210526315801</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="109">
         <v>0.86315789473684201</v>
       </c>
       <c r="I6" s="15">
@@ -4464,7 +4436,7 @@
       <c r="J6" s="15">
         <v>0.64407894736842097</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="111">
         <v>0.82499999999999996</v>
       </c>
     </row>
@@ -4485,13 +4457,13 @@
       <c r="F7" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="109">
         <v>0.83223684210526305</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="109">
         <v>0.861184210526316</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="109">
         <v>0.85526315789473695</v>
       </c>
       <c r="J7" s="15">
@@ -4510,13 +4482,13 @@
       <c r="D8" s="18">
         <v>0.68947368421052602</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="106">
         <v>0.80394736842105297</v>
       </c>
       <c r="F8" s="19">
         <v>0.74473684210526303</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="106">
         <v>0.88815789473684204</v>
       </c>
       <c r="H8" s="32">
@@ -4528,7 +4500,7 @@
       <c r="J8" s="19">
         <v>0.65526315789473699</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="112">
         <v>0.85263157894736796</v>
       </c>
     </row>
@@ -4551,10 +4523,10 @@
       <c r="F9" s="22">
         <v>0.84342105263157896</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="108">
         <v>0.86447368421052595</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="108">
         <v>0.90723684210526301</v>
       </c>
       <c r="I9" s="22">
@@ -4563,7 +4535,7 @@
       <c r="J9" s="22">
         <v>0.79605263157894701</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="113">
         <v>0.89144736842105299</v>
       </c>
     </row>
@@ -4581,10 +4553,10 @@
       <c r="F10" s="15">
         <v>0.72368421052631604</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="109">
         <v>0.87763157894736898</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="109">
         <v>0.955921052631579</v>
       </c>
       <c r="I10" s="15">
@@ -4593,7 +4565,7 @@
       <c r="J10" s="15">
         <v>0.72499999999999998</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="111">
         <v>0.893421052631579</v>
       </c>
     </row>
@@ -4614,10 +4586,10 @@
       <c r="F11" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="109">
         <v>0.84276315789473699</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="109">
         <v>0.88947368421052597</v>
       </c>
       <c r="I11" s="15">
@@ -4626,7 +4598,7 @@
       <c r="J11" s="15">
         <v>0.74671052631579005</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="111">
         <v>0.79802631578947403</v>
       </c>
     </row>
@@ -4645,10 +4617,10 @@
       <c r="F12" s="19">
         <v>0.73421052631578998</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="106">
         <v>0.85131578947368403</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="106">
         <v>0.91710526315789498</v>
       </c>
       <c r="I12" s="19">
@@ -4657,7 +4629,7 @@
       <c r="J12" s="19">
         <v>0.74934210526315803</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="112">
         <v>0.86315789473684201</v>
       </c>
     </row>
@@ -4674,10 +4646,10 @@
       <c r="D13" s="28">
         <v>0.86973684210526303</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="108">
         <v>0.89013157894736805</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="108">
         <v>0.88223684210526299</v>
       </c>
       <c r="G13" s="22">
@@ -4692,7 +4664,7 @@
       <c r="J13" s="22">
         <v>0.86052631578947403</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="113">
         <v>0.888815789473684</v>
       </c>
     </row>
@@ -4704,13 +4676,13 @@
       <c r="D14" s="14">
         <v>0.88026315789473697</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="109">
         <v>0.99407894736842095</v>
       </c>
       <c r="F14" s="15">
         <v>0.879605263157895</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="109">
         <v>0.99934210526315803</v>
       </c>
       <c r="H14" s="15">
@@ -4722,7 +4694,7 @@
       <c r="J14" s="15">
         <v>0.8</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="111">
         <v>0.94802631578947405</v>
       </c>
     </row>
@@ -4734,7 +4706,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="107">
         <v>0.89736842105263204</v>
       </c>
       <c r="E15" s="15">
@@ -4746,10 +4718,10 @@
       <c r="G15" s="15">
         <v>0.88618421052631602</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="109">
         <v>0.88815789473684204</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="109">
         <v>0.888815789473684</v>
       </c>
       <c r="J15" s="15">
@@ -4768,13 +4740,13 @@
       <c r="D16" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="106">
         <v>0.99802631578947398</v>
       </c>
       <c r="F16" s="19">
         <v>0.89210526315789496</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="106">
         <v>0.99276315789473701</v>
       </c>
       <c r="H16" s="19">
@@ -4786,7 +4758,7 @@
       <c r="J16" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="112">
         <v>0.95855263157894699</v>
       </c>
     </row>
@@ -4809,19 +4781,19 @@
       <c r="F17" s="22">
         <v>0.78026315789473699</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="108">
         <v>0.93684210526315803</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="108">
         <v>0.884210526315789</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="108">
         <v>0.83684210526315805</v>
       </c>
       <c r="J17" s="22">
         <v>0.68026315789473701</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="69">
         <v>0.740789473684211</v>
       </c>
     </row>
@@ -4839,10 +4811,10 @@
       <c r="F18" s="15">
         <v>0.74802631578947398</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="109">
         <v>0.92236842105263195</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="109">
         <v>0.94539473684210495</v>
       </c>
       <c r="I18" s="15">
@@ -4851,7 +4823,7 @@
       <c r="J18" s="15">
         <v>0.64473684210526305</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="111">
         <v>0.91973684210526296</v>
       </c>
     </row>
@@ -4872,19 +4844,19 @@
       <c r="F19" s="15">
         <v>0.78092105263157896</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="109">
         <v>0.89802631578947401</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="109">
         <v>0.794078947368421</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="109">
         <v>0.79342105263157903</v>
       </c>
       <c r="J19" s="15">
         <v>0.68947368421052602</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="111">
         <v>0.79605263157894701</v>
       </c>
     </row>
@@ -4897,16 +4869,16 @@
       <c r="D20" s="18">
         <v>0.70197368421052597</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="106">
         <v>0.92302631578947403</v>
       </c>
       <c r="F20" s="19">
         <v>0.78157894736842104</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="106">
         <v>0.90394736842105305</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="106">
         <v>0.95657894736842097</v>
       </c>
       <c r="I20" s="19">
@@ -5281,19 +5253,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6051,19 +6023,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6111,28 +6083,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="84">
         <v>31</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>218</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>133</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="85">
         <v>239</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="85">
         <v>241</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="45">
         <v>195</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="45">
         <v>9</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="86">
         <v>267</v>
       </c>
     </row>
@@ -6141,28 +6113,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="58">
         <v>16</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="87">
         <v>274</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>103</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <v>221</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="87">
         <v>216</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>269</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="47">
         <v>12</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="88">
         <v>217</v>
       </c>
     </row>
@@ -6174,28 +6146,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="58">
         <v>42</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>216</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <v>154</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>217</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="87">
         <v>217</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="87">
         <v>281</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="47">
         <v>32</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="88">
         <v>216</v>
       </c>
     </row>
@@ -6205,28 +6177,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>30</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="89">
         <v>281</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="66">
         <v>29</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="89">
         <v>218</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="66">
         <v>218</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="66">
         <v>281</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="66">
         <v>29</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="90">
         <v>216</v>
       </c>
     </row>
@@ -6240,28 +6212,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="91">
         <v>185</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>164</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="92">
         <v>188</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="92">
         <v>216</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="92">
         <v>217</v>
       </c>
-      <c r="I9" s="57">
-        <v>1</v>
-      </c>
-      <c r="J9" s="57">
+      <c r="I9" s="55">
+        <v>1</v>
+      </c>
+      <c r="J9" s="55">
         <v>184</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="56">
         <v>215</v>
       </c>
     </row>
@@ -6270,28 +6242,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <v>183</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="87">
         <v>216</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <v>152</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <v>217</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="87">
         <v>216</v>
       </c>
-      <c r="I10" s="48">
-        <v>1</v>
-      </c>
-      <c r="J10" s="48">
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
         <v>158</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="88">
         <v>216</v>
       </c>
     </row>
@@ -6303,28 +6275,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="58">
         <v>54</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <v>217</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <v>156</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="87">
         <v>201</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="87">
         <v>215</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="47">
         <v>2</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="47">
         <v>157</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="88">
         <v>217</v>
       </c>
     </row>
@@ -6334,28 +6306,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="59">
         <v>180</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="89">
         <v>217</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="66">
         <v>177</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="66">
         <v>217</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="89">
         <v>218</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="66">
         <v>2</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="66">
         <v>178</v>
       </c>
-      <c r="K12" s="92">
+      <c r="K12" s="90">
         <v>217</v>
       </c>
     </row>
@@ -6369,28 +6341,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="79">
         <v>81</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="80">
         <v>75</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="54">
         <v>68</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="54">
         <v>67</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="54">
         <v>73</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="80">
         <v>76</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <v>74</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="83">
         <v>78</v>
       </c>
     </row>
@@ -6399,28 +6371,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="74">
         <v>69</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>44</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>74</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>45</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>72</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>74</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>57</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="75">
         <v>47</v>
       </c>
     </row>
@@ -6432,28 +6404,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="74">
         <v>82</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>67</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>72</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>78</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>63</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>71</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>76</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="82">
         <v>70</v>
       </c>
     </row>
@@ -6463,28 +6435,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="76">
         <v>76</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="77">
         <v>44</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="65">
         <v>79</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="77">
         <v>45</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="65">
         <v>68</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="65">
         <v>71</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="65">
         <v>64</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="78">
         <v>44</v>
       </c>
     </row>
@@ -6498,28 +6470,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="79">
         <v>7</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <v>218</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="54">
         <v>128</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="80">
         <v>219</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="80">
         <v>223</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="80">
         <v>224</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="54">
         <v>56</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="81">
         <v>221</v>
       </c>
     </row>
@@ -6528,28 +6500,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="74">
         <v>18</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>50</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>57</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>45</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>143</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>159</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>12</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="82">
         <v>170</v>
       </c>
     </row>
@@ -6561,28 +6533,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="74">
         <v>16</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>218</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>113</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>220</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>211</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>213</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>20</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="75">
         <v>205</v>
       </c>
     </row>
@@ -6592,28 +6564,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="76">
         <v>21</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="77">
         <v>222</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="65">
         <v>139</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="65">
         <v>79</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="77">
         <v>115</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="65">
         <v>176</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="65">
         <v>12</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="78">
         <v>55</v>
       </c>
     </row>
@@ -6822,19 +6794,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6882,28 +6854,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="84">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>100.1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>46.8</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="85">
         <v>151.4</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="85">
         <v>178.6</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="45">
         <v>176.3</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="45">
         <v>7.5</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="86">
         <v>95.6</v>
       </c>
     </row>
@@ -6912,28 +6884,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="58">
         <v>16.7</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="87">
         <v>156.80000000000001</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>33.1</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <v>152.1</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="87">
         <v>164.9</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>173.8</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="47">
         <v>7.6</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="88">
         <v>158.1</v>
       </c>
     </row>
@@ -6945,28 +6917,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="58">
         <v>22.3</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>85.7</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <v>68.7</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>156.5</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="87">
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="87">
         <v>202.7</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="47">
         <v>12.4</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="88">
         <v>135.5</v>
       </c>
     </row>
@@ -6976,28 +6948,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="89">
         <v>132.5</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="66">
         <v>47.4</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="89">
         <v>204.5</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="66">
         <v>136.4</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="66">
         <v>168.1</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="66">
         <v>15.6</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="90">
         <v>165.8</v>
       </c>
     </row>
@@ -7011,28 +6983,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="91">
         <v>73.2</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>46.8</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="92">
         <v>124.9</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="92">
         <v>160.4</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="92">
         <v>195.5</v>
       </c>
-      <c r="I9" s="57">
-        <v>1</v>
-      </c>
-      <c r="J9" s="57">
+      <c r="I9" s="55">
+        <v>1</v>
+      </c>
+      <c r="J9" s="55">
         <v>73.2</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="56">
         <v>195.6</v>
       </c>
     </row>
@@ -7041,28 +7013,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <v>76.3</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="87">
         <v>129.5</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <v>51.6</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <v>160.30000000000001</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="87">
         <v>215</v>
       </c>
-      <c r="I10" s="48">
-        <v>1</v>
-      </c>
-      <c r="J10" s="48">
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
         <v>67</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="88">
         <v>180.7</v>
       </c>
     </row>
@@ -7074,28 +7046,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="58">
         <v>60</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <v>112</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <v>64.7</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="87">
         <v>142.4</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="87">
         <v>178</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="47">
         <v>2</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="47">
         <v>40.6</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="88">
         <v>117.4</v>
       </c>
     </row>
@@ -7105,28 +7077,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="59">
         <v>67.900000000000006</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="89">
         <v>134</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="66">
         <v>66.099999999999994</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="66">
         <v>149</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="89">
         <v>174.7</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="66">
         <v>2</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="66">
         <v>62.2</v>
       </c>
-      <c r="K12" s="92">
+      <c r="K12" s="90">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -7140,28 +7112,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="79">
         <v>65</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="80">
         <v>70.5</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="54">
         <v>67.2</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="54">
         <v>66.7</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="54">
         <v>70</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="80">
         <v>71.7</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <v>59.7</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="83">
         <v>67.7</v>
       </c>
     </row>
@@ -7170,28 +7142,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="74">
         <v>68.5</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>44.9</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>68.3</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>45.9</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>68.3</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>64.8</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>56.9</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="75">
         <v>58.2</v>
       </c>
     </row>
@@ -7203,28 +7175,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="74">
         <v>68.2</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>68.400000000000006</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>62.3</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>68.2</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>65.400000000000006</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>65.599999999999994</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>64.099999999999994</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="82">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -7234,28 +7206,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="76">
         <v>70.900000000000006</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="77">
         <v>44.8</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="65">
         <v>68.400000000000006</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="77">
         <v>44.9</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="65">
         <v>67.099999999999994</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="65">
         <v>67.5</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="65">
         <v>48.2</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="78">
         <v>55.4</v>
       </c>
     </row>
@@ -7269,28 +7241,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="79">
         <v>8.5</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <v>118.5</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="54">
         <v>65</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="80">
         <v>210</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="80">
         <v>183.2</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="80">
         <v>139.80000000000001</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="54">
         <v>20.8</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="81">
         <v>73.7</v>
       </c>
     </row>
@@ -7299,28 +7271,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="74">
         <v>12.1</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>106</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>55.1</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>115.4</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>115</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>112.1</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>10.3</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="82">
         <v>118.5</v>
       </c>
     </row>
@@ -7332,28 +7304,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="74">
         <v>17.5</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>101.7</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>62.4</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>196.5</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>99</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>115</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>16.5</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="75">
         <v>128.19999999999999</v>
       </c>
     </row>
@@ -7363,28 +7335,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="76">
         <v>17.399999999999999</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="77">
         <v>144.69999999999999</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="65">
         <v>70.7</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="65">
         <v>100</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="77">
         <v>114</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="65">
         <v>91.7</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="65">
         <v>14</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="78">
         <v>99.2</v>
       </c>
     </row>
@@ -7592,19 +7564,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7652,42 +7624,42 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="75"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="74">
         <v>2</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>5</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>2</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>7</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>7</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>5</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>5</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="75">
         <v>5</v>
       </c>
     </row>
@@ -7699,14 +7671,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="77"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -7714,28 +7686,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="76">
         <v>3</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="77">
         <v>3</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="65">
         <v>2</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="77">
         <v>7</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="65">
         <v>6</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="65">
         <v>2</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="65">
         <v>7</v>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="78">
         <v>7</v>
       </c>
     </row>
@@ -7749,42 +7721,42 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="83"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="74">
         <v>3</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>3</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>5</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>7</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>5</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>3</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="75">
         <v>2</v>
       </c>
     </row>
@@ -7796,14 +7768,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7811,28 +7783,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="76">
         <v>2</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="77">
         <v>5</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="65">
         <v>2</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="65">
         <v>4</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="77">
         <v>7</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="65">
         <v>9</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="65">
         <v>2</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="78">
         <v>5</v>
       </c>
     </row>
@@ -7846,42 +7818,42 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="85"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="74">
         <v>2</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>3</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>2</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>3</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>9</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>10</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>2</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="75">
         <v>7</v>
       </c>
     </row>
@@ -7893,14 +7865,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="84"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -7908,28 +7880,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="76">
         <v>2</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="77">
         <v>3</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="65">
         <v>2</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="77">
         <v>3</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="65">
         <v>6</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="65">
         <v>10</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="65">
         <v>2</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="78">
         <v>3</v>
       </c>
     </row>
@@ -7943,42 +7915,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="83"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="74">
         <v>3</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>9</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>2</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>3</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>7</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>4</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>3</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="82">
         <v>9</v>
       </c>
     </row>
@@ -7990,14 +7962,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -8005,28 +7977,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="76">
         <v>2</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="77">
         <v>5</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="65">
         <v>2</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="65">
         <v>6</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="77">
         <v>9</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="65">
         <v>3</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="65">
         <v>2</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="78">
         <v>6</v>
       </c>
     </row>
@@ -8234,19 +8206,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8294,42 +8266,42 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="75"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="74">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>3.9</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>3</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>5.4</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>4.8</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>3.8</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="75">
         <v>4.5</v>
       </c>
     </row>
@@ -8341,14 +8313,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="77"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -8356,28 +8328,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="76">
         <v>3.6</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="77">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="65">
         <v>4.5</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="77">
         <v>3.8</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="65">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="65">
         <v>3.1</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="65">
         <v>3.8</v>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="78">
         <v>4.2</v>
       </c>
     </row>
@@ -8391,42 +8363,42 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="83"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="74">
         <v>4.3</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>3.6</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>3.4</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>5</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>6.4</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>3.2</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="75">
         <v>3.8</v>
       </c>
     </row>
@@ -8438,14 +8410,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -8453,28 +8425,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="76">
         <v>3.6</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="77">
         <v>3.8</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="65">
         <v>3.6</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="65">
         <v>3.2</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="77">
         <v>5.3</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="65">
         <v>5.9</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="65">
         <v>3.5</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="78">
         <v>4.2</v>
       </c>
     </row>
@@ -8488,42 +8460,42 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="85"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="74">
         <v>2.1</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>2.6</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>6.5</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>7.6</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>4.2</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="75">
         <v>6.9</v>
       </c>
     </row>
@@ -8535,14 +8507,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="84"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -8550,28 +8522,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="76">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="77">
         <v>4</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="65">
         <v>2.6</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="77">
         <v>3.8</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="65">
         <v>6.4</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="65">
         <v>8.4</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="78">
         <v>5.9</v>
       </c>
     </row>
@@ -8585,42 +8557,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="83"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="74">
         <v>3.1</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>3.1</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>4.5</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>4.2</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>4</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="82">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -8632,14 +8604,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -8647,28 +8619,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="76">
         <v>3.6</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="77">
         <v>4.3</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="65">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="65">
         <v>3.7</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="77">
         <v>6.5</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="65">
         <v>4.3</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="65">
         <v>3.7</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="78">
         <v>3.7</v>
       </c>
     </row>
@@ -8857,8 +8829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" activeCellId="1" sqref="M5:M8 O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8867,35 +8839,38 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8905,29 +8880,29 @@
       <c r="E3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="34" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="97" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="97" t="s">
+      <c r="N3" s="102"/>
+      <c r="O3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="99"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8936,46 +8911,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8986,88 +8961,88 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="40">
-        <v>1</v>
-      </c>
-      <c r="D5" s="69">
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="54">
         <v>0.5</v>
       </c>
-      <c r="F5" s="57">
-        <v>1</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1</v>
-      </c>
-      <c r="H5" s="57">
+      <c r="F5" s="55">
+        <v>1</v>
+      </c>
+      <c r="G5" s="55">
+        <v>1</v>
+      </c>
+      <c r="H5" s="55">
         <v>3</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="55">
         <v>128</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="55">
         <v>2</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="55">
         <v>3</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="55">
         <v>4</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="105">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="53">
         <v>0.05</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="55">
         <v>2</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="58">
         <v>4</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>2</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <v>0.25</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <v>3</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>0.25</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>2.6</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="49">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="35">
         <v>0.5</v>
       </c>
       <c r="P6" s="25">
@@ -9079,92 +9054,92 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="60">
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="58">
         <v>8</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>0.5</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>0.5</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>8</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <v>3</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <v>0.25</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="49">
         <v>3.125E-2</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <v>0.4</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="47">
         <v>16</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="49">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="49">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="61">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="58">
         <v>2</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>2</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <v>4</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="49">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <v>2</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="47">
         <v>32</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="35">
         <v>0.5</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="61">
         <v>0.25</v>
       </c>
     </row>
@@ -9175,91 +9150,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="40">
-        <v>1</v>
-      </c>
-      <c r="D9" s="59">
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="57">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>0.5</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>4</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="48">
-        <v>1</v>
-      </c>
-      <c r="I9" s="48">
+      <c r="H9" s="47">
+        <v>1</v>
+      </c>
+      <c r="I9" s="47">
         <v>8</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="50">
         <v>3.125E-2</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <v>2.4</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="47">
         <v>1024</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="50">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="60">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="57">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <v>2</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <v>2</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>0.6</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <v>2.8</v>
       </c>
-      <c r="L10" s="48">
-        <v>1</v>
-      </c>
-      <c r="M10" s="51">
+      <c r="L10" s="47">
+        <v>1</v>
+      </c>
+      <c r="M10" s="50">
         <v>3.125E-2</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <v>0.1</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <v>8</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="61">
         <v>0.25</v>
       </c>
     </row>
@@ -9268,59 +9243,59 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="41">
-        <v>1</v>
-      </c>
-      <c r="D11" s="60">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
         <v>0.5</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="49">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
         <v>0.125</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>0.6</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="47">
         <v>32</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="47">
         <v>2</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>2.6</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="47">
         <v>256</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="49">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="51">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="58">
         <v>4</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -9329,31 +9304,31 @@
       <c r="G12" s="15">
         <v>0.125</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>0.8</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="48">
-        <v>1</v>
-      </c>
-      <c r="L12" s="48">
+      <c r="K12" s="47">
+        <v>1</v>
+      </c>
+      <c r="L12" s="47">
         <v>256</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="62">
+      <c r="P12" s="60">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -9364,43 +9339,43 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>1</v>
       </c>
       <c r="D13" s="14">
         <v>1.953125E-3</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>2</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>8</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>2.4</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>0.5</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>6.25E-2</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>3</v>
       </c>
       <c r="L13" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="49">
         <v>3.125E-2</v>
       </c>
       <c r="N13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="50">
         <v>6.25E-2</v>
       </c>
       <c r="P13" s="25">
@@ -9409,46 +9384,46 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="57">
         <v>3.90625E-3</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <v>64</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>1</v>
       </c>
       <c r="I14" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <v>0.8</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="48">
         <v>1.5625E-2</v>
       </c>
       <c r="M14" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="35">
         <v>8</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="61">
         <v>0.25</v>
       </c>
     </row>
@@ -9457,89 +9432,89 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="41">
-        <v>1</v>
-      </c>
-      <c r="D15" s="60">
+      <c r="C15" s="40">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
         <v>1024</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>8</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <v>1.5625E-2</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="48">
         <v>0.5</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="48">
         <v>2.4</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>2</v>
       </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="J15" s="35">
+        <v>1</v>
+      </c>
+      <c r="K15" s="35">
         <v>3</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>4</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="49">
         <v>0.125</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N15" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="47">
         <v>1024</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="62">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <v>16</v>
       </c>
       <c r="E16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <v>1.5625E-2</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <v>0.8</v>
       </c>
       <c r="I16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <v>0.2</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="49">
         <v>-9.765625E-4</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <v>8</v>
       </c>
       <c r="P16" s="25">
@@ -9553,88 +9528,88 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="41">
-        <v>1</v>
-      </c>
-      <c r="D17" s="59">
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
         <v>6.25E-2</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>4</v>
       </c>
       <c r="F17" s="15">
         <v>0.125</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <v>4</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>2.4</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="47">
         <v>32</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>0.5</v>
       </c>
-      <c r="K17" s="48">
-        <v>1</v>
-      </c>
-      <c r="L17" s="48">
+      <c r="K17" s="47">
+        <v>1</v>
+      </c>
+      <c r="L17" s="47">
         <v>512</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>0.1</v>
       </c>
-      <c r="O17" s="48">
-        <v>1</v>
-      </c>
-      <c r="P17" s="64">
+      <c r="O17" s="47">
+        <v>1</v>
+      </c>
+      <c r="P17" s="62">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="57">
         <v>6.25E-2</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="47">
         <v>2</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="47">
         <v>2</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="47">
         <v>3</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="47">
         <v>8</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="50">
         <v>7.8125E-3</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="47">
         <v>2</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="47">
         <v>1024</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <v>3.90625E-3</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="35">
         <v>0.1</v>
       </c>
-      <c r="O18" s="48">
+      <c r="O18" s="47">
         <v>4</v>
       </c>
       <c r="P18" s="25">
@@ -9646,92 +9621,92 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="41">
-        <v>1</v>
-      </c>
-      <c r="D19" s="59">
+      <c r="C19" s="40">
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>0.5</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <v>2</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <v>8</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>2.6</v>
       </c>
       <c r="I19" s="15">
         <v>0.125</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>0.4</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="47">
         <v>256</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="50">
         <v>3.125E-2</v>
       </c>
       <c r="N19" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O19" s="48">
-        <v>1</v>
-      </c>
-      <c r="P19" s="63">
+      <c r="O19" s="47">
+        <v>1</v>
+      </c>
+      <c r="P19" s="61">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="59">
         <v>8</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="52">
         <v>1.5625E-2</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="66">
         <v>4</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="64">
         <v>0.25</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="65">
         <v>2.8</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="52">
         <v>3.125E-2</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="52">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="65">
         <v>0.4</v>
       </c>
-      <c r="L20" s="68">
+      <c r="L20" s="66">
         <v>256</v>
       </c>
-      <c r="M20" s="54">
+      <c r="M20" s="52">
         <v>3.125E-2</v>
       </c>
       <c r="N20" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="63">
         <v>6.25E-2</v>
       </c>
-      <c r="P20" s="70">
+      <c r="P20" s="68">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10011,61 +9986,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="97" t="s">
+      <c r="I3" s="102"/>
+      <c r="J3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="97" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="97" t="s">
+      <c r="O3" s="102"/>
+      <c r="P3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="97" t="s">
+      <c r="Q3" s="102"/>
+      <c r="R3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="99"/>
+      <c r="S3" s="103"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -10077,52 +10052,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10136,52 +10111,52 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="46">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10190,52 +10165,52 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="48">
-        <v>1</v>
-      </c>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>0.25</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>0.25</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <v>-8</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="48">
-        <v>1</v>
-      </c>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="47">
+        <v>1</v>
+      </c>
+      <c r="S6" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10247,52 +10222,52 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="48">
         <v>0.25</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="48">
-        <v>1</v>
-      </c>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="47">
+        <v>1</v>
+      </c>
+      <c r="M7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="49">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="48">
         <v>0.25</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10302,52 +10277,52 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <v>0.25</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>64</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>0.5</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <v>0.5</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="45" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="48">
-        <v>1</v>
-      </c>
-      <c r="S8" s="46" t="s">
+      <c r="R8" s="47">
+        <v>1</v>
+      </c>
+      <c r="S8" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10361,52 +10336,52 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>0.99</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>0.5</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>0.99</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>0.99</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>0.3</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <v>0.4</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <v>0.99</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="35">
         <v>0.1</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10415,52 +10390,52 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>0.99</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>0.1</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>0.99</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>0.3</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="48">
         <v>0.01</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="48">
         <v>0.99</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="48">
         <v>0.99</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="49">
+      <c r="R10" s="48">
         <v>0.01</v>
       </c>
-      <c r="S10" s="46" t="s">
+      <c r="S10" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10472,52 +10447,52 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>0.9</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <v>0.9</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="48">
         <v>0.99</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="48">
         <v>0.99</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="48">
         <v>0.99</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>0.7</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="48">
         <v>0.99</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <v>0.1</v>
       </c>
-      <c r="S11" s="46" t="s">
+      <c r="S11" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10527,52 +10502,52 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <v>0.99</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <v>0.01</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="48">
         <v>0.99</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <v>0.1</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="48">
         <v>0.01</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <v>0.8</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="48">
         <v>0.99</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <v>0.1</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10595,43 +10570,43 @@
       <c r="F13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="49">
         <v>1.66015625E-2</v>
       </c>
       <c r="H13" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>6.34765625E-2</v>
       </c>
       <c r="J13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>8.0009765625</v>
       </c>
       <c r="L13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="35">
         <v>4.0009765625</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="48">
         <v>7.8125E-3</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="48">
         <v>8.7890625E-3</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="49">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="48">
         <v>1.66015625E-2</v>
       </c>
       <c r="R13" s="15">
         <v>0.5</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="48">
         <v>1.66015625E-2</v>
       </c>
     </row>
@@ -10640,16 +10615,16 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>3.90625E-3</v>
       </c>
       <c r="E14" s="15">
         <v>6.34765625E-2</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <v>0.25</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="49">
         <v>0.5009765625</v>
       </c>
       <c r="H14" s="15">
@@ -10658,34 +10633,34 @@
       <c r="I14" s="15">
         <v>2.0009765625</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <v>32.0009765625</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="35">
         <v>16.0009765625</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="48">
         <v>7.8125E-3</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="35">
         <v>128.0009765625</v>
       </c>
       <c r="P14" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="49">
         <v>0.5009765625</v>
       </c>
       <c r="R14" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="S14" s="48">
+      <c r="S14" s="47">
         <v>64.0009765625</v>
       </c>
     </row>
@@ -10697,49 +10672,49 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>16.0009765625</v>
       </c>
       <c r="F15" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>8.0009765625</v>
       </c>
       <c r="H15" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="48">
         <v>8.7890625E-3</v>
       </c>
       <c r="J15" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="48">
         <v>0.2509765625</v>
       </c>
       <c r="L15" s="15">
         <v>0.125</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="35">
         <v>1.0009765625</v>
       </c>
       <c r="N15" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="48">
         <v>3.22265625E-2</v>
       </c>
       <c r="P15" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="47">
         <v>1.0009765625</v>
       </c>
-      <c r="R15" s="50">
+      <c r="R15" s="49">
         <v>3.90625E-3</v>
       </c>
       <c r="S15" s="15">
@@ -10758,46 +10733,46 @@
       <c r="E16" s="15">
         <v>1.66015625E-2</v>
       </c>
-      <c r="F16" s="49">
-        <v>1</v>
-      </c>
-      <c r="G16" s="36">
+      <c r="F16" s="48">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35">
         <v>0.1259765625</v>
       </c>
       <c r="H16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="47">
         <v>8.0009765625</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <v>3.125E-2</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="47">
         <v>1024.0009765625</v>
       </c>
       <c r="L16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="35">
         <v>4.0009765625</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="48">
         <v>0.25</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <v>0.1259765625</v>
       </c>
       <c r="P16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="Q16" s="47">
         <v>8.0009765625</v>
       </c>
       <c r="R16" s="15">
         <v>1.5625E-2</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="35">
         <v>2.0009765625</v>
       </c>
     </row>
@@ -10811,52 +10786,52 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <v>16</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>1024.0009765625</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <v>16</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <v>256.0009765625</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>7.8125E-3</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="47">
         <v>64.0009765625</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="49">
         <v>6.34765625E-2</v>
       </c>
       <c r="L17" s="15">
         <v>0.125</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>0.5009765625</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="47">
         <v>-128</v>
       </c>
       <c r="O17" s="15">
         <v>-9.765625E-4</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="49">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="47">
         <v>8.0009765625</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="47">
         <v>8</v>
       </c>
-      <c r="S17" s="48">
+      <c r="S17" s="47">
         <v>128.0009765625</v>
       </c>
     </row>
@@ -10865,37 +10840,37 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="47">
         <v>16</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>0.5009765625</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <v>7.8125E-3</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="47">
         <v>2.0009765625</v>
       </c>
-      <c r="J18" s="48">
-        <v>1</v>
-      </c>
-      <c r="K18" s="48">
+      <c r="J18" s="47">
+        <v>1</v>
+      </c>
+      <c r="K18" s="47">
         <v>256.0009765625</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="49">
         <v>1.953125E-3</v>
       </c>
       <c r="M18" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="49">
         <v>-64</v>
       </c>
       <c r="O18" s="15">
@@ -10904,13 +10879,13 @@
       <c r="P18" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="47">
         <v>32.0009765625</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="S18" s="48">
+      <c r="S18" s="47">
         <v>16.0009765625</v>
       </c>
     </row>
@@ -10922,49 +10897,49 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="49">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="47">
         <v>32.0009765625</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="48">
         <v>0.25</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <v>64.0009765625</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="49">
         <v>3.22265625E-2</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>3.125E-2</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="47">
         <v>32.0009765625</v>
       </c>
-      <c r="L19" s="50">
+      <c r="L19" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="47">
         <v>16.0009765625</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="48">
         <v>-0.25</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="47">
         <v>32.0009765625</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19" s="49">
         <v>7.8125E-3</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="47">
         <v>8.0009765625</v>
       </c>
-      <c r="R19" s="50">
+      <c r="R19" s="49">
         <v>3.125E-2</v>
       </c>
       <c r="S19" s="15">
@@ -10977,40 +10952,40 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <v>32.0009765625</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="49">
         <v>1.953125E-3</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="49">
         <v>4.8828125E-3</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="49">
         <v>7.8125E-3</v>
       </c>
       <c r="I20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="49">
         <v>6.34765625E-2</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="49">
         <v>1.5625E-2</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="47">
         <v>1.0009765625</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>4</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="47">
         <v>8.0009765625</v>
       </c>
       <c r="P20" s="15">
@@ -11019,7 +10994,7 @@
       <c r="Q20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="50">
+      <c r="R20" s="49">
         <v>1.953125E-3</v>
       </c>
       <c r="S20" s="15">
